--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D3D3A-A224-422A-8609-468C73C44A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBD4AE-5C10-4D5D-A8C1-3F6274757A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="975" windowWidth="36480" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -1585,392 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{048756EB-8A00-435C-AA74-35F51B55905A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>86176:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-W0  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">未装备
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W1  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>default)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">熔炉
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W2  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">铁骑
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W3  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">烈焰弹丸
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W4  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">贯日者
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W5  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">紫灵之光
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W6  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">纷飞
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W7  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>狙击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">青鸾
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W8  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>步枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">电鸣丸
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>W9  (</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>手枪</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>蜥燚</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{CA52AB90-88FD-4C03-B3E0-ED6F120DC982}">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{CA52AB90-88FD-4C03-B3E0-ED6F120DC982}">
       <text>
         <r>
           <rPr>
@@ -2867,7 +2482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="56">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -3014,21 +2629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E0|E7|E8</t>
-  </si>
-  <si>
-    <t>DropWeapons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeaponWeights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropWeaponMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropElements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3045,22 +2645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]WeaponType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物掉落武器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物掉落武器权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物掉落武器最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物掉落物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3074,13 +2658,6 @@
   </si>
   <si>
     <t>怪物掉落概率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|1|1</t>
-  </si>
-  <si>
-    <t>10|1|1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3119,31 +2696,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W0</t>
+    <t>E000</t>
   </si>
   <si>
-    <t>W0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>E0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|40|10</t>
-  </si>
-  <si>
-    <t>40|40|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E0|E3|E5</t>
-  </si>
-  <si>
-    <t>E0|E3|E5</t>
+    <t>E000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3708,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X268"/>
+  <dimension ref="A1:U268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3726,14 +3282,11 @@
     <col min="15" max="15" width="18.25" customWidth="1"/>
     <col min="16" max="16" width="23.625" customWidth="1"/>
     <col min="17" max="17" width="21.375" customWidth="1"/>
-    <col min="18" max="18" width="17.5" customWidth="1"/>
-    <col min="19" max="19" width="18.375" customWidth="1"/>
-    <col min="20" max="20" width="15.375" customWidth="1"/>
-    <col min="21" max="21" width="16.875" customWidth="1"/>
-    <col min="22" max="22" width="16.25" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3759,13 +3312,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>22</v>
@@ -3785,29 +3338,20 @@
       <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3839,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>28</v>
@@ -3859,29 +3403,20 @@
       <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3909,23 +3444,16 @@
         <v>30</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,13 +3479,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -3978,28 +3506,19 @@
         <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -4034,25 +3553,25 @@
         <v>4</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="S5" s="7">
         <v>1</v>
@@ -4060,20 +3579,11 @@
       <c r="T5" s="7">
         <v>0</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -4108,25 +3618,25 @@
         <v>5</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S6" s="7">
         <v>1</v>
@@ -4134,20 +3644,11 @@
       <c r="T6" s="7">
         <v>0</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -4182,25 +3683,25 @@
         <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S7" s="7">
         <v>1</v>
@@ -4208,20 +3709,11 @@
       <c r="T7" s="7">
         <v>0</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -4256,25 +3748,25 @@
         <v>5</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S8" s="7">
         <v>1</v>
@@ -4282,20 +3774,11 @@
       <c r="T8" s="7">
         <v>0</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -4330,25 +3813,25 @@
         <v>5</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S9" s="7">
         <v>1</v>
@@ -4356,20 +3839,11 @@
       <c r="T9" s="7">
         <v>0</v>
       </c>
-      <c r="U9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -4404,25 +3878,25 @@
         <v>5</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S10" s="7">
         <v>1</v>
@@ -4430,20 +3904,11 @@
       <c r="T10" s="7">
         <v>0</v>
       </c>
-      <c r="U10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V10" s="7">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -4478,25 +3943,25 @@
         <v>5</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S11" s="7">
         <v>1</v>
@@ -4504,20 +3969,11 @@
       <c r="T11" s="7">
         <v>0</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11" s="7">
-        <v>1</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -4552,25 +4008,25 @@
         <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S12" s="7">
         <v>1</v>
@@ -4578,20 +4034,11 @@
       <c r="T12" s="7">
         <v>0</v>
       </c>
-      <c r="U12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="7">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -4626,25 +4073,25 @@
         <v>5</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S13" s="7">
         <v>1</v>
@@ -4652,20 +4099,11 @@
       <c r="T13" s="7">
         <v>0</v>
       </c>
-      <c r="U13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -4700,25 +4138,25 @@
         <v>5</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S14" s="7">
         <v>1</v>
@@ -4726,20 +4164,11 @@
       <c r="T14" s="7">
         <v>0</v>
       </c>
-      <c r="U14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="7">
-        <v>1</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -4774,25 +4203,25 @@
         <v>5</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S15" s="7">
         <v>1</v>
@@ -4800,20 +4229,11 @@
       <c r="T15" s="7">
         <v>0</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V15" s="7">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -4848,25 +4268,25 @@
         <v>5</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S16" s="7">
         <v>1</v>
@@ -4874,20 +4294,11 @@
       <c r="T16" s="7">
         <v>0</v>
       </c>
-      <c r="U16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" s="7">
-        <v>1</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -4922,25 +4333,25 @@
         <v>5</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S17" s="7">
         <v>1</v>
@@ -4948,20 +4359,11 @@
       <c r="T17" s="7">
         <v>0</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V17" s="7">
-        <v>1</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -4996,25 +4398,25 @@
         <v>5</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S18" s="7">
         <v>1</v>
@@ -5022,20 +4424,11 @@
       <c r="T18" s="7">
         <v>0</v>
       </c>
-      <c r="U18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V18" s="7">
-        <v>1</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -5070,25 +4463,25 @@
         <v>5</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S19" s="7">
         <v>1</v>
@@ -5096,20 +4489,11 @@
       <c r="T19" s="7">
         <v>0</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V19" s="7">
-        <v>1</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -5144,25 +4528,25 @@
         <v>5</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S20" s="7">
         <v>1</v>
@@ -5170,20 +4554,11 @@
       <c r="T20" s="7">
         <v>0</v>
       </c>
-      <c r="U20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="7">
-        <v>1</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -5218,25 +4593,25 @@
         <v>5</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S21" s="7">
         <v>1</v>
@@ -5244,20 +4619,11 @@
       <c r="T21" s="7">
         <v>0</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V21" s="7">
-        <v>1</v>
-      </c>
-      <c r="W21" s="7">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -5292,25 +4658,25 @@
         <v>5</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S22" s="7">
         <v>1</v>
@@ -5318,20 +4684,11 @@
       <c r="T22" s="7">
         <v>0</v>
       </c>
-      <c r="U22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>19</v>
       </c>
@@ -5366,25 +4723,25 @@
         <v>5</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
       </c>
       <c r="Q23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S23" s="7">
         <v>1</v>
@@ -5392,20 +4749,11 @@
       <c r="T23" s="7">
         <v>0</v>
       </c>
-      <c r="U23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="7">
-        <v>1</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -5440,25 +4788,25 @@
         <v>5</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
       </c>
       <c r="Q24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S24" s="7">
         <v>1</v>
@@ -5466,20 +4814,11 @@
       <c r="T24" s="7">
         <v>0</v>
       </c>
-      <c r="U24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -5514,25 +4853,25 @@
         <v>5</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S25" s="7">
         <v>1</v>
@@ -5540,20 +4879,11 @@
       <c r="T25" s="7">
         <v>0</v>
       </c>
-      <c r="U25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -5588,25 +4918,25 @@
         <v>5</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S26" s="7">
         <v>1</v>
@@ -5614,20 +4944,11 @@
       <c r="T26" s="7">
         <v>0</v>
       </c>
-      <c r="U26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -5662,25 +4983,25 @@
         <v>5</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S27" s="7">
         <v>1</v>
@@ -5688,20 +5009,11 @@
       <c r="T27" s="7">
         <v>0</v>
       </c>
-      <c r="U27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -5736,25 +5048,25 @@
         <v>5</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S28" s="7">
         <v>1</v>
@@ -5762,20 +5074,11 @@
       <c r="T28" s="7">
         <v>0</v>
       </c>
-      <c r="U28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -5810,25 +5113,25 @@
         <v>5</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S29" s="7">
         <v>1</v>
@@ -5836,20 +5139,11 @@
       <c r="T29" s="7">
         <v>0</v>
       </c>
-      <c r="U29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -5884,25 +5178,25 @@
         <v>5</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S30" s="7">
         <v>1</v>
@@ -5910,20 +5204,11 @@
       <c r="T30" s="7">
         <v>0</v>
       </c>
-      <c r="U30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -5958,25 +5243,25 @@
         <v>5</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S31" s="7">
         <v>1</v>
@@ -5984,20 +5269,11 @@
       <c r="T31" s="7">
         <v>0</v>
       </c>
-      <c r="U31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V31" s="7">
-        <v>1</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>28</v>
       </c>
@@ -6032,25 +5308,25 @@
         <v>5</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
       </c>
       <c r="Q32" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S32" s="7">
         <v>1</v>
@@ -6058,20 +5334,11 @@
       <c r="T32" s="7">
         <v>0</v>
       </c>
-      <c r="U32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -6106,25 +5373,25 @@
         <v>5</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
       </c>
       <c r="Q33" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S33" s="7">
         <v>1</v>
@@ -6132,20 +5399,11 @@
       <c r="T33" s="7">
         <v>0</v>
       </c>
-      <c r="U33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -6177,28 +5435,28 @@
         <v>1</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
       </c>
       <c r="Q34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S34" s="7">
         <v>1</v>
@@ -6206,20 +5464,11 @@
       <c r="T34" s="7">
         <v>0</v>
       </c>
-      <c r="U34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34" s="7">
-        <v>0</v>
-      </c>
-      <c r="X34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>31</v>
       </c>
@@ -6254,25 +5503,25 @@
         <v>5</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
       </c>
       <c r="Q35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S35" s="7">
         <v>1</v>
@@ -6280,20 +5529,11 @@
       <c r="T35" s="7">
         <v>0</v>
       </c>
-      <c r="U35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V35" s="7">
-        <v>1</v>
-      </c>
-      <c r="W35" s="7">
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -6328,25 +5568,25 @@
         <v>5</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
       </c>
       <c r="Q36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S36" s="7">
         <v>1</v>
@@ -6354,20 +5594,11 @@
       <c r="T36" s="7">
         <v>0</v>
       </c>
-      <c r="U36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V36" s="7">
-        <v>1</v>
-      </c>
-      <c r="W36" s="7">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -6402,25 +5633,25 @@
         <v>5</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
       </c>
       <c r="Q37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S37" s="7">
         <v>1</v>
@@ -6428,20 +5659,11 @@
       <c r="T37" s="7">
         <v>0</v>
       </c>
-      <c r="U37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V37" s="7">
-        <v>1</v>
-      </c>
-      <c r="W37" s="7">
-        <v>0</v>
-      </c>
-      <c r="X37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -6476,25 +5698,25 @@
         <v>5</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
       </c>
       <c r="Q38" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S38" s="7">
         <v>1</v>
@@ -6502,20 +5724,11 @@
       <c r="T38" s="7">
         <v>0</v>
       </c>
-      <c r="U38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V38" s="7">
-        <v>1</v>
-      </c>
-      <c r="W38" s="7">
-        <v>0</v>
-      </c>
-      <c r="X38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -6550,25 +5763,25 @@
         <v>5</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
       </c>
       <c r="N39" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
       </c>
       <c r="Q39" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S39" s="7">
         <v>1</v>
@@ -6576,20 +5789,11 @@
       <c r="T39" s="7">
         <v>0</v>
       </c>
-      <c r="U39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V39" s="7">
-        <v>1</v>
-      </c>
-      <c r="W39" s="7">
-        <v>0</v>
-      </c>
-      <c r="X39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -6624,25 +5828,25 @@
         <v>5</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
       </c>
       <c r="Q40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S40" s="7">
         <v>1</v>
@@ -6650,20 +5854,11 @@
       <c r="T40" s="7">
         <v>0</v>
       </c>
-      <c r="U40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V40" s="7">
-        <v>1</v>
-      </c>
-      <c r="W40" s="7">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>37</v>
       </c>
@@ -6698,25 +5893,25 @@
         <v>5</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
       </c>
       <c r="Q41" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S41" s="7">
         <v>1</v>
@@ -6724,20 +5919,11 @@
       <c r="T41" s="7">
         <v>0</v>
       </c>
-      <c r="U41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V41" s="7">
-        <v>1</v>
-      </c>
-      <c r="W41" s="7">
-        <v>0</v>
-      </c>
-      <c r="X41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -6772,25 +5958,25 @@
         <v>5</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
       </c>
       <c r="Q42" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S42" s="7">
         <v>1</v>
@@ -6798,20 +5984,11 @@
       <c r="T42" s="7">
         <v>0</v>
       </c>
-      <c r="U42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V42" s="7">
-        <v>1</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -6846,25 +6023,25 @@
         <v>5</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
       </c>
       <c r="Q43" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S43" s="7">
         <v>1</v>
@@ -6872,20 +6049,11 @@
       <c r="T43" s="7">
         <v>0</v>
       </c>
-      <c r="U43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V43" s="7">
-        <v>1</v>
-      </c>
-      <c r="W43" s="7">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -6920,25 +6088,25 @@
         <v>5</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S44" s="7">
         <v>1</v>
@@ -6946,20 +6114,11 @@
       <c r="T44" s="7">
         <v>0</v>
       </c>
-      <c r="U44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V44" s="7">
-        <v>1</v>
-      </c>
-      <c r="W44" s="7">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -6994,25 +6153,25 @@
         <v>5</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
       </c>
       <c r="N45" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
       </c>
       <c r="Q45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S45" s="7">
         <v>1</v>
@@ -7020,20 +6179,11 @@
       <c r="T45" s="7">
         <v>0</v>
       </c>
-      <c r="U45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V45" s="7">
-        <v>1</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -7068,25 +6218,25 @@
         <v>5</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
       </c>
       <c r="N46" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
       </c>
       <c r="Q46" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S46" s="7">
         <v>1</v>
@@ -7094,20 +6244,11 @@
       <c r="T46" s="7">
         <v>0</v>
       </c>
-      <c r="U46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V46" s="7">
-        <v>1</v>
-      </c>
-      <c r="W46" s="7">
-        <v>0</v>
-      </c>
-      <c r="X46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43</v>
       </c>
@@ -7142,25 +6283,25 @@
         <v>5</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
       </c>
       <c r="Q47" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S47" s="7">
         <v>1</v>
@@ -7168,20 +6309,11 @@
       <c r="T47" s="7">
         <v>0</v>
       </c>
-      <c r="U47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V47" s="7">
-        <v>1</v>
-      </c>
-      <c r="W47" s="7">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -7216,25 +6348,25 @@
         <v>5</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
       </c>
       <c r="Q48" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S48" s="7">
         <v>1</v>
@@ -7242,20 +6374,11 @@
       <c r="T48" s="7">
         <v>0</v>
       </c>
-      <c r="U48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V48" s="7">
-        <v>1</v>
-      </c>
-      <c r="W48" s="7">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -7290,25 +6413,25 @@
         <v>5</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
       </c>
       <c r="Q49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S49" s="7">
         <v>1</v>
@@ -7316,20 +6439,11 @@
       <c r="T49" s="7">
         <v>0</v>
       </c>
-      <c r="U49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V49" s="7">
-        <v>1</v>
-      </c>
-      <c r="W49" s="7">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>46</v>
       </c>
@@ -7364,25 +6478,25 @@
         <v>5</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
       </c>
       <c r="Q50" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S50" s="7">
         <v>1</v>
@@ -7390,20 +6504,11 @@
       <c r="T50" s="7">
         <v>0</v>
       </c>
-      <c r="U50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V50" s="7">
-        <v>1</v>
-      </c>
-      <c r="W50" s="7">
-        <v>0</v>
-      </c>
-      <c r="X50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>47</v>
       </c>
@@ -7438,25 +6543,25 @@
         <v>5</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
       </c>
       <c r="Q51" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -7464,20 +6569,11 @@
       <c r="T51" s="7">
         <v>0</v>
       </c>
-      <c r="U51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V51" s="7">
-        <v>1</v>
-      </c>
-      <c r="W51" s="7">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>48</v>
       </c>
@@ -7512,25 +6608,25 @@
         <v>5</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
       </c>
       <c r="Q52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S52" s="7">
         <v>1</v>
@@ -7538,20 +6634,11 @@
       <c r="T52" s="7">
         <v>0</v>
       </c>
-      <c r="U52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V52" s="7">
-        <v>1</v>
-      </c>
-      <c r="W52" s="7">
-        <v>0</v>
-      </c>
-      <c r="X52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>49</v>
       </c>
@@ -7586,25 +6673,25 @@
         <v>5</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
       </c>
       <c r="Q53" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S53" s="7">
         <v>1</v>
@@ -7612,20 +6699,11 @@
       <c r="T53" s="7">
         <v>0</v>
       </c>
-      <c r="U53" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V53" s="7">
-        <v>1</v>
-      </c>
-      <c r="W53" s="7">
-        <v>0</v>
-      </c>
-      <c r="X53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>50</v>
       </c>
@@ -7660,25 +6738,25 @@
         <v>5</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
       </c>
       <c r="Q54" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S54" s="7">
         <v>1</v>
@@ -7686,20 +6764,11 @@
       <c r="T54" s="7">
         <v>0</v>
       </c>
-      <c r="U54" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V54" s="7">
-        <v>1</v>
-      </c>
-      <c r="W54" s="7">
-        <v>0</v>
-      </c>
-      <c r="X54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>51</v>
       </c>
@@ -7734,25 +6803,25 @@
         <v>5</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
       </c>
       <c r="Q55" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S55" s="7">
         <v>1</v>
@@ -7760,20 +6829,11 @@
       <c r="T55" s="7">
         <v>0</v>
       </c>
-      <c r="U55" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V55" s="7">
-        <v>1</v>
-      </c>
-      <c r="W55" s="7">
-        <v>0</v>
-      </c>
-      <c r="X55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>52</v>
       </c>
@@ -7808,25 +6868,25 @@
         <v>5</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
       </c>
       <c r="Q56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S56" s="7">
         <v>1</v>
@@ -7834,20 +6894,11 @@
       <c r="T56" s="7">
         <v>0</v>
       </c>
-      <c r="U56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V56" s="7">
-        <v>1</v>
-      </c>
-      <c r="W56" s="7">
-        <v>0</v>
-      </c>
-      <c r="X56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>53</v>
       </c>
@@ -7882,25 +6933,25 @@
         <v>5</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
       </c>
       <c r="Q57" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S57" s="7">
         <v>1</v>
@@ -7908,20 +6959,11 @@
       <c r="T57" s="7">
         <v>0</v>
       </c>
-      <c r="U57" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V57" s="7">
-        <v>1</v>
-      </c>
-      <c r="W57" s="7">
-        <v>0</v>
-      </c>
-      <c r="X57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>54</v>
       </c>
@@ -7956,25 +6998,25 @@
         <v>5</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
       </c>
       <c r="Q58" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S58" s="7">
         <v>1</v>
@@ -7982,20 +7024,11 @@
       <c r="T58" s="7">
         <v>0</v>
       </c>
-      <c r="U58" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V58" s="7">
-        <v>1</v>
-      </c>
-      <c r="W58" s="7">
-        <v>0</v>
-      </c>
-      <c r="X58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>55</v>
       </c>
@@ -8030,25 +7063,25 @@
         <v>5</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
       </c>
       <c r="N59" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
       </c>
       <c r="Q59" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S59" s="7">
         <v>1</v>
@@ -8056,20 +7089,11 @@
       <c r="T59" s="7">
         <v>0</v>
       </c>
-      <c r="U59" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V59" s="7">
-        <v>1</v>
-      </c>
-      <c r="W59" s="7">
-        <v>0</v>
-      </c>
-      <c r="X59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>56</v>
       </c>
@@ -8104,25 +7128,25 @@
         <v>5</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
       </c>
       <c r="N60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
       </c>
       <c r="Q60" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S60" s="7">
         <v>1</v>
@@ -8130,20 +7154,11 @@
       <c r="T60" s="7">
         <v>0</v>
       </c>
-      <c r="U60" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V60" s="7">
-        <v>1</v>
-      </c>
-      <c r="W60" s="7">
-        <v>0</v>
-      </c>
-      <c r="X60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>57</v>
       </c>
@@ -8178,25 +7193,25 @@
         <v>5</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
       </c>
       <c r="Q61" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S61" s="7">
         <v>1</v>
@@ -8204,20 +7219,11 @@
       <c r="T61" s="7">
         <v>0</v>
       </c>
-      <c r="U61" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V61" s="7">
-        <v>1</v>
-      </c>
-      <c r="W61" s="7">
-        <v>0</v>
-      </c>
-      <c r="X61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>58</v>
       </c>
@@ -8252,25 +7258,25 @@
         <v>5</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
       </c>
       <c r="N62" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
       </c>
       <c r="Q62" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S62" s="7">
         <v>1</v>
@@ -8278,20 +7284,11 @@
       <c r="T62" s="7">
         <v>0</v>
       </c>
-      <c r="U62" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V62" s="7">
-        <v>1</v>
-      </c>
-      <c r="W62" s="7">
-        <v>0</v>
-      </c>
-      <c r="X62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>59</v>
       </c>
@@ -8326,25 +7323,25 @@
         <v>5</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
       </c>
       <c r="Q63" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S63" s="7">
         <v>1</v>
@@ -8352,20 +7349,11 @@
       <c r="T63" s="7">
         <v>0</v>
       </c>
-      <c r="U63" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V63" s="7">
-        <v>1</v>
-      </c>
-      <c r="W63" s="7">
-        <v>0</v>
-      </c>
-      <c r="X63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>60</v>
       </c>
@@ -8397,28 +7385,28 @@
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
       </c>
       <c r="Q64" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S64" s="7">
         <v>1</v>
@@ -8426,16 +7414,7 @@
       <c r="T64" s="7">
         <v>0</v>
       </c>
-      <c r="U64" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V64" s="7">
-        <v>1</v>
-      </c>
-      <c r="W64" s="7">
-        <v>0</v>
-      </c>
-      <c r="X64" s="7">
+      <c r="U64" s="7">
         <v>0</v>
       </c>
     </row>

--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBD4AE-5C10-4D5D-A8C1-3F6274757A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA446A46-DABF-4A64-91BF-29715BC6C048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="645" windowWidth="36795" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-E0  </t>
+E401  </t>
         </r>
         <r>
           <rPr>
@@ -69,8 +69,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">无
-</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E1  </t>
+          <t>1</t>
         </r>
         <r>
           <rPr>
@@ -89,8 +88,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">传送门
-</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -99,7 +97,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E2  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -109,7 +107,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">铁匠
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -119,7 +117,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E3  </t>
+          <t xml:space="preserve">E402  </t>
         </r>
         <r>
           <rPr>
@@ -129,7 +127,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -138,7 +136,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t>2</t>
         </r>
         <r>
           <rPr>
@@ -148,7 +146,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -157,8 +155,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E4  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -168,7 +165,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -177,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve">E403  </t>
         </r>
         <r>
           <rPr>
@@ -187,7 +185,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>金币</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -196,8 +194,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E5  </t>
+          <t>3</t>
         </r>
         <r>
           <rPr>
@@ -207,7 +204,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -216,7 +213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -226,7 +223,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -235,8 +233,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E6  </t>
+          <t xml:space="preserve">E404  </t>
         </r>
         <r>
           <rPr>
@@ -246,7 +243,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>子弹罐</t>
         </r>
         <r>
           <rPr>
@@ -255,7 +252,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -265,7 +262,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>技能点</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -274,8 +272,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E7  </t>
+          <t xml:space="preserve">E405  </t>
         </r>
         <r>
           <rPr>
@@ -285,8 +282,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">油桶
-</t>
+          <t>血包罐</t>
         </r>
         <r>
           <rPr>
@@ -295,7 +291,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E8  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -305,7 +301,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">毒桶
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -315,7 +311,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E9  </t>
+          <t xml:space="preserve">E406  </t>
         </r>
         <r>
           <rPr>
@@ -325,8 +321,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">金币
-</t>
+          <t>高级子弹罐</t>
         </r>
         <r>
           <rPr>
@@ -335,7 +330,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E10  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -345,7 +340,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">魂石
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -355,7 +350,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E11  </t>
+          <t xml:space="preserve">E407  </t>
         </r>
         <r>
           <rPr>
@@ -365,8 +360,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">武器
-</t>
+          <t>高级血包罐</t>
         </r>
         <r>
           <rPr>
@@ -375,7 +369,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E12  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -385,7 +379,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -394,7 +389,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1</t>
+          <t xml:space="preserve">E408  </t>
         </r>
         <r>
           <rPr>
@@ -404,8 +399,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
-</t>
+          <t>大量金币罐</t>
         </r>
         <r>
           <rPr>
@@ -414,7 +408,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E13  </t>
+          <t xml:space="preserve">: </t>
         </r>
         <r>
           <rPr>
@@ -424,7 +418,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -433,7 +428,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2</t>
+          <t xml:space="preserve">E409  </t>
         </r>
         <r>
           <rPr>
@@ -443,8 +438,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
-</t>
+          <t>盛宴掉落罐</t>
         </r>
         <r>
           <rPr>
@@ -453,7 +447,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E14  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -463,16 +457,32 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">可破坏物
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{DA324260-E7C5-45F9-BC1A-C9EBDF9AE2ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3</t>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+E401  </t>
         </r>
         <r>
           <rPr>
@@ -482,8 +492,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
-</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -492,7 +501,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E15  </t>
+          <t>1</t>
         </r>
         <r>
           <rPr>
@@ -502,8 +511,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">药瓶
-</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -512,7 +520,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E16  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -522,7 +530,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">主要技能点
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -532,7 +540,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E17  </t>
+          <t xml:space="preserve">E402  </t>
         </r>
         <r>
           <rPr>
@@ -542,8 +550,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">次要技能点
-</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -552,7 +559,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E18  </t>
+          <t>2</t>
         </r>
         <r>
           <rPr>
@@ -562,8 +569,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">爆炸物
-</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -572,7 +578,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E19  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -582,7 +588,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">出现特效
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -592,7 +598,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E20  </t>
+          <t xml:space="preserve">E403  </t>
         </r>
         <r>
           <rPr>
@@ -602,8 +608,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">死亡特效
-</t>
+          <t>可能是空罐子</t>
         </r>
         <r>
           <rPr>
@@ -612,7 +617,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E21  </t>
+          <t>3</t>
         </r>
         <r>
           <rPr>
@@ -622,8 +627,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">体力
-</t>
+          <t>号</t>
         </r>
         <r>
           <rPr>
@@ -632,7 +636,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E22  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -642,7 +646,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">能力宝箱
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -652,7 +656,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E23  </t>
+          <t xml:space="preserve">E404  </t>
         </r>
         <r>
           <rPr>
@@ -662,7 +666,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶</t>
+          <t>子弹罐</t>
         </r>
         <r>
           <rPr>
@@ -671,7 +675,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -681,7 +685,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>小</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -690,8 +695,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E24  </t>
+          <t xml:space="preserve">E405  </t>
         </r>
         <r>
           <rPr>
@@ -701,7 +705,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶</t>
+          <t>血包罐</t>
         </r>
         <r>
           <rPr>
@@ -710,7 +714,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -720,7 +724,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>大</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -729,8 +734,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E25  </t>
+          <t xml:space="preserve">E406  </t>
         </r>
         <r>
           <rPr>
@@ -740,7 +744,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>高级子弹罐</t>
         </r>
         <r>
           <rPr>
@@ -749,7 +753,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -759,7 +763,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶小</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -768,8 +773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E26  </t>
+          <t xml:space="preserve">E407  </t>
         </r>
         <r>
           <rPr>
@@ -779,7 +783,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>高级血包罐</t>
         </r>
         <r>
           <rPr>
@@ -788,7 +792,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -798,7 +802,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶大</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -807,32 +812,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{BCE2F810-323E-4528-B1ED-D8A74A1B660B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>86176:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-E0  </t>
+          <t xml:space="preserve">E408  </t>
         </r>
         <r>
           <rPr>
@@ -842,8 +822,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">无
-</t>
+          <t>大量金币罐</t>
         </r>
         <r>
           <rPr>
@@ -852,7 +831,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E1  </t>
+          <t xml:space="preserve">: </t>
         </r>
         <r>
           <rPr>
@@ -862,7 +841,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">传送门
+          <t xml:space="preserve">可破坏物
 </t>
         </r>
         <r>
@@ -872,7 +851,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E2  </t>
+          <t xml:space="preserve">E409  </t>
         </r>
         <r>
           <rPr>
@@ -882,8 +861,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">铁匠
-</t>
+          <t>盛宴掉落罐</t>
         </r>
         <r>
           <rPr>
@@ -892,7 +870,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E3  </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -902,7 +880,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t xml:space="preserve">可破坏物
+</t>
         </r>
         <r>
           <rPr>
@@ -911,7 +890,32 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{BCE2F810-323E-4528-B1ED-D8A74A1B660B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+E200  </t>
         </r>
         <r>
           <rPr>
@@ -921,7 +925,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t>油桶</t>
         </r>
         <r>
           <rPr>
@@ -930,8 +934,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E4  </t>
+          <t xml:space="preserve"> 
+E201  </t>
         </r>
         <r>
           <rPr>
@@ -941,7 +945,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>毒桶</t>
         </r>
         <r>
           <rPr>
@@ -950,7 +954,32 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{8E31B777-9929-4E5B-908D-44641B485A77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+E200  </t>
         </r>
         <r>
           <rPr>
@@ -960,7 +989,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>金币</t>
+          <t>油桶</t>
         </r>
         <r>
           <rPr>
@@ -969,8 +998,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E5  </t>
+          <t xml:space="preserve"> 
+E201  </t>
         </r>
         <r>
           <rPr>
@@ -980,7 +1009,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>毒桶</t>
         </r>
         <r>
           <rPr>
@@ -989,7 +1018,32 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{CA52AB90-88FD-4C03-B3E0-ED6F120DC982}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+E301  </t>
         </r>
         <r>
           <rPr>
@@ -999,7 +1053,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>药瓶</t>
+          <t>金币</t>
         </r>
         <r>
           <rPr>
@@ -1008,8 +1062,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E6  </t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -1019,7 +1072,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>可破坏物</t>
+          <t>小</t>
         </r>
         <r>
           <rPr>
@@ -1028,7 +1081,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve">) </t>
         </r>
         <r>
           <rPr>
@@ -1038,7 +1091,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>技能点</t>
+          <t xml:space="preserve">掉落物
+</t>
         </r>
         <r>
           <rPr>
@@ -1047,8 +1101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-E7  </t>
+          <t xml:space="preserve">E302  </t>
         </r>
         <r>
           <rPr>
@@ -1058,8 +1111,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">油桶
-</t>
+          <t>金币</t>
         </r>
         <r>
           <rPr>
@@ -1068,7 +1120,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E8  </t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -1078,8 +1130,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">毒桶
-</t>
+          <t>大</t>
         </r>
         <r>
           <rPr>
@@ -1088,7 +1139,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E9  </t>
+          <t xml:space="preserve">) </t>
         </r>
         <r>
           <rPr>
@@ -1098,7 +1149,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">金币
+          <t xml:space="preserve">掉落物
 </t>
         </r>
         <r>
@@ -1108,7 +1159,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E10  </t>
+          <t xml:space="preserve">E303  </t>
         </r>
         <r>
           <rPr>
@@ -1118,8 +1169,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">魂石
-</t>
+          <t>普通子弹</t>
         </r>
         <r>
           <rPr>
@@ -1128,7 +1178,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E11  </t>
+          <t xml:space="preserve">1 </t>
         </r>
         <r>
           <rPr>
@@ -1138,7 +1188,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">武器
+          <t xml:space="preserve">掉落物
 </t>
         </r>
         <r>
@@ -1148,7 +1198,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E12  </t>
+          <t xml:space="preserve">E304  </t>
         </r>
         <r>
           <rPr>
@@ -1158,7 +1208,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t>特殊子弹</t>
         </r>
         <r>
           <rPr>
@@ -1167,7 +1217,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1</t>
+          <t xml:space="preserve">2 </t>
         </r>
         <r>
           <rPr>
@@ -1177,7 +1227,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
+          <t xml:space="preserve">掉落物
 </t>
         </r>
         <r>
@@ -1187,7 +1237,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E13  </t>
+          <t xml:space="preserve">E305  </t>
         </r>
         <r>
           <rPr>
@@ -1197,7 +1247,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t>药瓶</t>
         </r>
         <r>
           <rPr>
@@ -1206,7 +1256,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2</t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -1216,8 +1266,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
-</t>
+          <t>小</t>
         </r>
         <r>
           <rPr>
@@ -1226,7 +1275,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E14  </t>
+          <t xml:space="preserve">) </t>
         </r>
         <r>
           <rPr>
@@ -1236,7 +1285,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子弹</t>
+          <t xml:space="preserve">掉落物
+</t>
         </r>
         <r>
           <rPr>
@@ -1245,7 +1295,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3</t>
+          <t xml:space="preserve">E306  </t>
         </r>
         <r>
           <rPr>
@@ -1255,8 +1305,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">号
-</t>
+          <t>药瓶</t>
         </r>
         <r>
           <rPr>
@@ -1265,7 +1314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E15  </t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -1275,8 +1324,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">药瓶
-</t>
+          <t>中</t>
         </r>
         <r>
           <rPr>
@@ -1285,7 +1333,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E16  </t>
+          <t xml:space="preserve">) </t>
         </r>
         <r>
           <rPr>
@@ -1295,7 +1343,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">主要技能点
+          <t xml:space="preserve">掉落物
 </t>
         </r>
         <r>
@@ -1305,7 +1353,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E17  </t>
+          <t xml:space="preserve">E307  </t>
         </r>
         <r>
           <rPr>
@@ -1315,8 +1363,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">次要技能点
-</t>
+          <t>药瓶</t>
         </r>
         <r>
           <rPr>
@@ -1325,7 +1372,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E18  </t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -1335,8 +1382,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">爆炸物
-</t>
+          <t>大</t>
         </r>
         <r>
           <rPr>
@@ -1345,7 +1391,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E19  </t>
+          <t xml:space="preserve">) </t>
         </r>
         <r>
           <rPr>
@@ -1355,7 +1401,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">出现特效
+          <t xml:space="preserve">掉落物
 </t>
         </r>
         <r>
@@ -1365,995 +1411,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">E20  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">死亡特效
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E21  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">体力
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E22  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">能力宝箱
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E23  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>小</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E24  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>大</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E25  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶小</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E26  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶大</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{CA52AB90-88FD-4C03-B3E0-ED6F120DC982}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>86176:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">
-E0  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">无
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E1  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">传送门
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E2  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">铁匠
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E3  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E4  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>金币</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E5  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E6  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技能点</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E7  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">油桶
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E8  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">毒桶
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E9  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">金币
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E10  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">魂石
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E11  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">武器
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E12  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">号
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E13  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">号
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E14  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">号
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E15  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">药瓶
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E16  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">主要技能点
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E17  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">次要技能点
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E18  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">爆炸物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E19  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">出现特效
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E20  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">死亡特效
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E21  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">体力
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E22  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">能力宝箱
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">E23  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>小</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E24  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>大</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E25  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶小</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-E26  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可破坏物</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>药瓶大</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
 </t>
         </r>
       </text>
@@ -2482,7 +1540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="75">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -2570,30 +1628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementWeights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageElements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageElementWeights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageElementCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]ElementType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2603,30 +1637,6 @@
   </si>
   <si>
     <t>ListSpliter: "|"</t>
-  </si>
-  <si>
-    <t>可损坏元素种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可损坏元素权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可损坏元素数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害元素种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害元素权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害元素数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DropElements</t>
@@ -2701,6 +1711,124 @@
   <si>
     <t>E000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElements1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElementWeights1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElementCount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElements2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElementWeights2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageElementCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElements1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElementWeights1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElementCount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElements2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElementWeights2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapElementCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素种类1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素权重1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素数量1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素种类2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素权重2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害元素数量2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素种类1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素权重1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素数量1组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素种类2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素权重2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素数量2组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|30|30|30|30|10</t>
+  </si>
+  <si>
+    <t>25|15|80|5|5|3</t>
+  </si>
+  <si>
+    <t>80|30|30</t>
+  </si>
+  <si>
+    <t>E000|E200|E201</t>
+  </si>
+  <si>
+    <t>E000|E200|E201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000|E401|E402|E403|E404|E406</t>
+  </si>
+  <si>
+    <t>E000|E406|E405|E407|E408|E409</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +1951,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2844,6 +1972,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -2898,7 +2038,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2908,8 +2048,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2940,9 +2086,17 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="20% - 着色 2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - 着色 5" xfId="2" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="4" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -3264,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U268"/>
+  <dimension ref="A1:AA268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3279,14 +2433,23 @@
     <col min="9" max="9" width="20.875" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
     <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="18.25" customWidth="1"/>
-    <col min="16" max="16" width="23.625" customWidth="1"/>
-    <col min="17" max="17" width="21.375" customWidth="1"/>
-    <col min="18" max="18" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="28.375" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="20.75" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="17" max="17" width="20.75" customWidth="1"/>
+    <col min="18" max="18" width="16.75" customWidth="1"/>
+    <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="20" max="20" width="17.375" customWidth="1"/>
+    <col min="21" max="21" width="16.875" customWidth="1"/>
+    <col min="22" max="22" width="19.375" customWidth="1"/>
+    <col min="23" max="23" width="17.75" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3312,46 +2475,64 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Z1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AA1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3383,40 +2564,58 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3430,30 +2629,44 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3479,46 +2692,64 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3553,37 +2784,55 @@
         <v>4</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -3618,37 +2867,55 @@
         <v>5</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -3683,37 +2950,55 @@
         <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -3748,37 +3033,55 @@
         <v>5</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -3813,37 +3116,55 @@
         <v>5</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -3878,37 +3199,55 @@
         <v>5</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -3943,37 +3282,55 @@
         <v>5</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -4008,37 +3365,55 @@
         <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -4073,37 +3448,55 @@
         <v>5</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -4138,37 +3531,55 @@
         <v>5</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -4203,37 +3614,55 @@
         <v>5</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -4268,37 +3697,55 @@
         <v>5</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -4333,37 +3780,55 @@
         <v>5</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -4398,37 +3863,55 @@
         <v>5</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -4463,37 +3946,55 @@
         <v>5</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -4528,37 +4029,55 @@
         <v>5</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -4593,37 +4112,55 @@
         <v>5</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S21" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -4658,37 +4195,55 @@
         <v>5</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>19</v>
       </c>
@@ -4723,37 +4278,55 @@
         <v>5</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S23" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -4788,37 +4361,55 @@
         <v>5</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -4853,37 +4444,55 @@
         <v>5</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>22</v>
       </c>
@@ -4918,37 +4527,55 @@
         <v>5</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -4983,37 +4610,55 @@
         <v>5</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -5048,37 +4693,55 @@
         <v>5</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -5113,37 +4776,55 @@
         <v>5</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T29" s="7">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -5178,37 +4859,55 @@
         <v>5</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S30" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -5243,37 +4942,55 @@
         <v>5</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S31" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>28</v>
       </c>
@@ -5308,37 +5025,55 @@
         <v>5</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S32" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -5373,37 +5108,55 @@
         <v>5</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -5435,40 +5188,58 @@
         <v>1</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="7">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>31</v>
       </c>
@@ -5503,37 +5274,55 @@
         <v>5</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -5568,37 +5357,55 @@
         <v>5</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S36" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T36" s="7">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -5633,37 +5440,55 @@
         <v>5</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S37" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T37" s="7">
-        <v>0</v>
-      </c>
-      <c r="U37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -5698,37 +5523,55 @@
         <v>5</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -5763,37 +5606,55 @@
         <v>5</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S39" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T39" s="7">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -5828,37 +5689,55 @@
         <v>5</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S40" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T40" s="7">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>37</v>
       </c>
@@ -5893,37 +5772,55 @@
         <v>5</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N41" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S41" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T41" s="7">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -5958,37 +5855,55 @@
         <v>5</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S42" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T42" s="7">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -6023,37 +5938,55 @@
         <v>5</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T43" s="7">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -6088,37 +6021,55 @@
         <v>5</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S44" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
-      </c>
-      <c r="U44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -6153,37 +6104,55 @@
         <v>5</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N45" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S45" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T45" s="7">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -6218,37 +6187,55 @@
         <v>5</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T46" s="7">
-        <v>0</v>
-      </c>
-      <c r="U46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43</v>
       </c>
@@ -6283,37 +6270,55 @@
         <v>5</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S47" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T47" s="7">
-        <v>0</v>
-      </c>
-      <c r="U47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -6348,37 +6353,55 @@
         <v>5</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S48" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T48" s="7">
-        <v>0</v>
-      </c>
-      <c r="U48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48" s="7">
+        <v>0</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -6413,37 +6436,55 @@
         <v>5</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S49" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T49" s="7">
-        <v>0</v>
-      </c>
-      <c r="U49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V49" s="7">
+        <v>0</v>
+      </c>
+      <c r="W49" s="7">
+        <v>0</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>46</v>
       </c>
@@ -6478,37 +6519,55 @@
         <v>5</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T50" s="7">
-        <v>0</v>
-      </c>
-      <c r="U50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>47</v>
       </c>
@@ -6543,37 +6602,55 @@
         <v>5</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N51" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V51" s="7">
+        <v>0</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>48</v>
       </c>
@@ -6608,37 +6685,55 @@
         <v>5</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P52" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S52" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T52" s="7">
-        <v>0</v>
-      </c>
-      <c r="U52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>49</v>
       </c>
@@ -6673,37 +6768,55 @@
         <v>5</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P53" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S53" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T53" s="7">
-        <v>0</v>
-      </c>
-      <c r="U53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>50</v>
       </c>
@@ -6738,37 +6851,55 @@
         <v>5</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N54" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S54" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T54" s="7">
-        <v>0</v>
-      </c>
-      <c r="U54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>51</v>
       </c>
@@ -6803,37 +6934,55 @@
         <v>5</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S55" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T55" s="7">
-        <v>0</v>
-      </c>
-      <c r="U55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V55" s="7">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>52</v>
       </c>
@@ -6868,37 +7017,55 @@
         <v>5</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S56" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T56" s="7">
-        <v>0</v>
-      </c>
-      <c r="U56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V56" s="7">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>53</v>
       </c>
@@ -6933,37 +7100,55 @@
         <v>5</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N57" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S57" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T57" s="7">
-        <v>0</v>
-      </c>
-      <c r="U57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V57" s="7">
+        <v>0</v>
+      </c>
+      <c r="W57" s="7">
+        <v>0</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>54</v>
       </c>
@@ -6998,37 +7183,55 @@
         <v>5</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N58" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P58" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S58" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T58" s="7">
-        <v>0</v>
-      </c>
-      <c r="U58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V58" s="7">
+        <v>0</v>
+      </c>
+      <c r="W58" s="7">
+        <v>0</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>55</v>
       </c>
@@ -7063,37 +7266,55 @@
         <v>5</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N59" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P59" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S59" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T59" s="7">
-        <v>0</v>
-      </c>
-      <c r="U59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V59" s="7">
+        <v>0</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>56</v>
       </c>
@@ -7128,37 +7349,55 @@
         <v>5</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P60" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S60" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T60" s="7">
-        <v>0</v>
-      </c>
-      <c r="U60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V60" s="7">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>57</v>
       </c>
@@ -7193,37 +7432,55 @@
         <v>5</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N61" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P61" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S61" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T61" s="7">
-        <v>0</v>
-      </c>
-      <c r="U61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>58</v>
       </c>
@@ -7258,37 +7515,55 @@
         <v>5</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P62" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S62" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T62" s="7">
-        <v>0</v>
-      </c>
-      <c r="U62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
+      <c r="X62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>59</v>
       </c>
@@ -7323,37 +7598,55 @@
         <v>5</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N63" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P63" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S63" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T63" s="7">
-        <v>0</v>
-      </c>
-      <c r="U63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>60</v>
       </c>
@@ -7385,36 +7678,54 @@
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P64" s="7">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="Q64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S64" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="T64" s="7">
-        <v>0</v>
-      </c>
-      <c r="U64" s="7">
+        <v>2</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+      <c r="W64" s="7">
+        <v>0</v>
+      </c>
+      <c r="X64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="7">
         <v>0</v>
       </c>
     </row>

--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA446A46-DABF-4A64-91BF-29715BC6C048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E437B-374A-4BF0-97B0-1F51F8172300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="645" windowWidth="36795" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2820" windowWidth="34515" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2790,7 @@
         <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>74</v>
@@ -2873,7 +2873,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>74</v>
@@ -2956,7 +2956,7 @@
         <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>74</v>
@@ -3039,7 +3039,7 @@
         <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>74</v>
@@ -3122,7 +3122,7 @@
         <v>68</v>
       </c>
       <c r="N9" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>74</v>
@@ -3205,7 +3205,7 @@
         <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>74</v>
@@ -3288,7 +3288,7 @@
         <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -3371,7 +3371,7 @@
         <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>74</v>
@@ -3454,7 +3454,7 @@
         <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -3537,7 +3537,7 @@
         <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>74</v>
@@ -3620,7 +3620,7 @@
         <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>74</v>
@@ -3703,7 +3703,7 @@
         <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>74</v>
@@ -3786,7 +3786,7 @@
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>74</v>
@@ -3869,7 +3869,7 @@
         <v>68</v>
       </c>
       <c r="N18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>74</v>
@@ -3952,7 +3952,7 @@
         <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>74</v>
@@ -4035,7 +4035,7 @@
         <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>74</v>
@@ -4118,7 +4118,7 @@
         <v>68</v>
       </c>
       <c r="N21" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>74</v>
@@ -4201,7 +4201,7 @@
         <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>74</v>
@@ -4284,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="N23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>74</v>
@@ -4367,7 +4367,7 @@
         <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>74</v>
@@ -4450,7 +4450,7 @@
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>74</v>
@@ -4533,7 +4533,7 @@
         <v>68</v>
       </c>
       <c r="N26" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>74</v>
@@ -4616,7 +4616,7 @@
         <v>68</v>
       </c>
       <c r="N27" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>74</v>
@@ -4699,7 +4699,7 @@
         <v>68</v>
       </c>
       <c r="N28" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>74</v>
@@ -4782,7 +4782,7 @@
         <v>68</v>
       </c>
       <c r="N29" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>74</v>
@@ -4865,7 +4865,7 @@
         <v>68</v>
       </c>
       <c r="N30" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>74</v>
@@ -4948,7 +4948,7 @@
         <v>68</v>
       </c>
       <c r="N31" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>74</v>
@@ -5031,7 +5031,7 @@
         <v>68</v>
       </c>
       <c r="N32" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>74</v>
@@ -5114,7 +5114,7 @@
         <v>68</v>
       </c>
       <c r="N33" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>74</v>
@@ -5197,7 +5197,7 @@
         <v>68</v>
       </c>
       <c r="N34" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>74</v>
@@ -5280,7 +5280,7 @@
         <v>68</v>
       </c>
       <c r="N35" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>74</v>
@@ -5363,7 +5363,7 @@
         <v>68</v>
       </c>
       <c r="N36" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>74</v>
@@ -5446,7 +5446,7 @@
         <v>68</v>
       </c>
       <c r="N37" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>74</v>
@@ -5529,7 +5529,7 @@
         <v>68</v>
       </c>
       <c r="N38" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>74</v>
@@ -5612,7 +5612,7 @@
         <v>68</v>
       </c>
       <c r="N39" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>74</v>
@@ -5695,7 +5695,7 @@
         <v>68</v>
       </c>
       <c r="N40" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>74</v>
@@ -5778,7 +5778,7 @@
         <v>68</v>
       </c>
       <c r="N41" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>74</v>
@@ -5861,7 +5861,7 @@
         <v>68</v>
       </c>
       <c r="N42" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>74</v>
@@ -5944,7 +5944,7 @@
         <v>68</v>
       </c>
       <c r="N43" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>74</v>
@@ -6027,7 +6027,7 @@
         <v>68</v>
       </c>
       <c r="N44" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>74</v>
@@ -6110,7 +6110,7 @@
         <v>68</v>
       </c>
       <c r="N45" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>74</v>
@@ -6193,7 +6193,7 @@
         <v>68</v>
       </c>
       <c r="N46" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>74</v>
@@ -6276,7 +6276,7 @@
         <v>68</v>
       </c>
       <c r="N47" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>74</v>
@@ -6359,7 +6359,7 @@
         <v>68</v>
       </c>
       <c r="N48" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>74</v>
@@ -6442,7 +6442,7 @@
         <v>68</v>
       </c>
       <c r="N49" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>74</v>
@@ -6525,7 +6525,7 @@
         <v>68</v>
       </c>
       <c r="N50" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>74</v>
@@ -6608,7 +6608,7 @@
         <v>68</v>
       </c>
       <c r="N51" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>74</v>
@@ -6691,7 +6691,7 @@
         <v>68</v>
       </c>
       <c r="N52" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>74</v>
@@ -6774,7 +6774,7 @@
         <v>68</v>
       </c>
       <c r="N53" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>74</v>
@@ -6857,7 +6857,7 @@
         <v>68</v>
       </c>
       <c r="N54" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>74</v>
@@ -6940,7 +6940,7 @@
         <v>68</v>
       </c>
       <c r="N55" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>74</v>
@@ -7023,7 +7023,7 @@
         <v>68</v>
       </c>
       <c r="N56" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>74</v>
@@ -7106,7 +7106,7 @@
         <v>68</v>
       </c>
       <c r="N57" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>74</v>
@@ -7189,7 +7189,7 @@
         <v>68</v>
       </c>
       <c r="N58" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>74</v>
@@ -7272,7 +7272,7 @@
         <v>68</v>
       </c>
       <c r="N59" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>74</v>
@@ -7355,7 +7355,7 @@
         <v>68</v>
       </c>
       <c r="N60" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>74</v>
@@ -7438,7 +7438,7 @@
         <v>68</v>
       </c>
       <c r="N61" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>74</v>
@@ -7521,7 +7521,7 @@
         <v>68</v>
       </c>
       <c r="N62" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>74</v>
@@ -7604,7 +7604,7 @@
         <v>68</v>
       </c>
       <c r="N63" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>74</v>
@@ -7687,7 +7687,7 @@
         <v>68</v>
       </c>
       <c r="N64" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>74</v>

--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E437B-374A-4BF0-97B0-1F51F8172300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBAFF7-4DE2-4CD0-9845-CA50363FE8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2820" windowWidth="34515" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1890" windowWidth="32430" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3190,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>35</v>
       </c>
       <c r="I42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>35</v>
       </c>
       <c r="I43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>35</v>
       </c>
       <c r="I45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="I47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>70</v>
       </c>
       <c r="I48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>70</v>
       </c>
       <c r="I50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>70</v>
       </c>
       <c r="I52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>70</v>
       </c>
       <c r="I53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>70</v>
       </c>
       <c r="I55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>70</v>
       </c>
       <c r="I57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>70</v>
       </c>
       <c r="I58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>70</v>
       </c>
       <c r="I60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>70</v>
       </c>
       <c r="I62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="7">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>70</v>
       </c>
       <c r="I63" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="7">
         <v>0</v>

--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24912"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F61809-D1F6-4863-95B0-5780D5BD35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -15,19 +21,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>86176</author>
   </authors>
   <commentList>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -35,7 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E401  </t>
@@ -52,7 +58,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -68,7 +74,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -85,7 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E402  </t>
         </r>
@@ -101,7 +107,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -117,7 +123,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -134,7 +140,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E403  </t>
         </r>
@@ -150,7 +156,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -166,7 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -183,7 +189,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E404  </t>
         </r>
@@ -199,7 +205,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -216,7 +222,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E405  </t>
         </r>
@@ -232,7 +238,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -249,7 +255,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E406  </t>
         </r>
@@ -265,7 +271,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -282,7 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E407  </t>
         </r>
@@ -298,7 +304,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -315,7 +321,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E408  </t>
         </r>
@@ -331,7 +337,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">: </t>
         </r>
@@ -348,7 +354,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E409  </t>
         </r>
@@ -364,7 +370,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -379,14 +385,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -394,7 +400,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E401  </t>
@@ -411,7 +417,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -427,7 +433,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -444,7 +450,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E402  </t>
         </r>
@@ -460,7 +466,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -476,7 +482,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -493,7 +499,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E403  </t>
         </r>
@@ -509,7 +515,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -525,7 +531,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -542,7 +548,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E404  </t>
         </r>
@@ -558,7 +564,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -575,7 +581,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E405  </t>
         </r>
@@ -591,7 +597,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -608,7 +614,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E406  </t>
         </r>
@@ -624,7 +630,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -641,7 +647,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E407  </t>
         </r>
@@ -657,7 +663,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -674,7 +680,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E408  </t>
         </r>
@@ -690,7 +696,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">: </t>
         </r>
@@ -707,7 +713,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E409  </t>
         </r>
@@ -723,7 +729,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -740,21 +746,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -762,7 +768,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E200  </t>
@@ -779,7 +785,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 E201  </t>
@@ -796,21 +802,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0">
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -818,7 +824,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E200  </t>
@@ -835,7 +841,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 E201  </t>
@@ -852,21 +858,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0">
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -874,7 +880,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E301  </t>
@@ -891,7 +897,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -907,7 +913,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -924,7 +930,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E302  </t>
         </r>
@@ -940,7 +946,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -956,7 +962,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -973,7 +979,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E303  </t>
         </r>
@@ -989,7 +995,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1 </t>
         </r>
@@ -1006,7 +1012,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E304  </t>
         </r>
@@ -1022,7 +1028,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">2 </t>
         </r>
@@ -1039,7 +1045,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E305  </t>
         </r>
@@ -1055,7 +1061,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1071,7 +1077,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1088,7 +1094,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E306  </t>
         </r>
@@ -1104,7 +1110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1120,7 +1126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1137,7 +1143,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E307  </t>
         </r>
@@ -1153,7 +1159,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1169,7 +1175,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1186,7 +1192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1198,13 +1204,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1277,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="73">
   <si>
     <t>RoomID</t>
   </si>
@@ -1471,9 +1477,6 @@
     <t>40|30|30|30|30|5</t>
   </si>
   <si>
-    <t>E405|E407|E404|E406|E409</t>
-  </si>
-  <si>
     <t>25|10|30|10|3|3</t>
   </si>
   <si>
@@ -1494,18 +1497,42 @@
   <si>
     <t>TableName: "Stage" Package: "neogame"</t>
   </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E405|E407|E404|E406|E409</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000|E405|E407|E404|E406|E409</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1543,159 +1570,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1721,8 +1604,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,186 +1654,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1971,240 +1720,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,93 +1748,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="27" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="37" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
+    <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="2" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.799981688894314"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2309,6 +1802,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2566,19 +2062,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -2603,7 +2099,7 @@
     <col min="25" max="25" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2820,7 +2316,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" ht="16.5" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -2903,7 +2399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:27">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -2946,26 +2442,26 @@
       <c r="N5" s="8">
         <v>6</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="8">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T5" s="2">
         <v>2</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
@@ -2974,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
@@ -2986,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:27">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3030,25 +2526,25 @@
         <v>6</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T6" s="2">
         <v>2</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -3057,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y6" s="2">
         <v>1</v>
@@ -3069,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:27">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3113,25 +2609,25 @@
         <v>6</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T7" s="2">
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -3140,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
@@ -3152,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:27">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3196,25 +2692,25 @@
         <v>6</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="Q8" s="8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="8">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T8" s="2">
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -3223,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
@@ -3235,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:27">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -3243,7 +2739,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9" s="8">
         <v>1.2</v>
@@ -3279,25 +2775,25 @@
         <v>6</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="8">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T9" s="2">
         <v>2</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -3306,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y9" s="2">
         <v>1</v>
@@ -3318,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:27">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -3326,7 +2822,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10" s="8">
         <v>1.2</v>
@@ -3362,25 +2858,25 @@
         <v>6</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Q10" s="8">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="8">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T10" s="2">
         <v>2</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -3389,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y10" s="2">
         <v>1</v>
@@ -3401,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:27">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -3409,7 +2905,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11" s="8">
         <v>1.2</v>
@@ -3445,25 +2941,25 @@
         <v>6</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="8">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="8">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T11" s="2">
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -3472,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y11" s="2">
         <v>1</v>
@@ -3484,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:27">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -3492,7 +2988,7 @@
         <v>180</v>
       </c>
       <c r="C12" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12" s="8">
         <v>1.2</v>
@@ -3528,25 +3024,25 @@
         <v>6</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="8">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="8">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T12" s="2">
         <v>2</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
@@ -3555,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="2">
         <v>1</v>
@@ -3567,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -3575,7 +3071,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13" s="8">
         <v>1.2</v>
@@ -3611,25 +3107,25 @@
         <v>6</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="8">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="8">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T13" s="2">
         <v>2</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -3638,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y13" s="2">
         <v>1</v>
@@ -3650,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:27">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -3694,25 +3190,25 @@
         <v>6</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="8">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T14" s="2">
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
@@ -3721,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y14" s="2">
         <v>1</v>
@@ -3733,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:27">
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -3777,25 +3273,25 @@
         <v>6</v>
       </c>
       <c r="O15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="Q15" s="8">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="8">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T15" s="2">
         <v>2</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
@@ -3804,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y15" s="2">
         <v>1</v>
@@ -3816,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:27">
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -3860,25 +3356,25 @@
         <v>6</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="8">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T16" s="2">
         <v>2</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V16" s="2">
         <v>0</v>
@@ -3887,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y16" s="2">
         <v>1</v>
@@ -3899,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:27">
+    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -3943,25 +3439,25 @@
         <v>6</v>
       </c>
       <c r="O17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="Q17" s="8">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="8">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T17" s="2">
         <v>2</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V17" s="2">
         <v>0</v>
@@ -3970,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y17" s="2">
         <v>1</v>
@@ -3982,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:27">
+    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -4026,25 +3522,25 @@
         <v>6</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="Q18" s="8">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="8">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T18" s="2">
         <v>2</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V18" s="2">
         <v>0</v>
@@ -4053,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="2">
         <v>1</v>
@@ -4065,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:27">
+    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -4109,25 +3605,25 @@
         <v>6</v>
       </c>
       <c r="O19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="Q19" s="8">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="8">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S19" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T19" s="2">
         <v>2</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -4136,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y19" s="2">
         <v>1</v>
@@ -4148,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:27">
+    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -4192,25 +3688,25 @@
         <v>6</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="8">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="8">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="S20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T20" s="2">
         <v>2</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -4219,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y20" s="2">
         <v>1</v>
@@ -4231,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:27">
+    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -4275,25 +3771,25 @@
         <v>6</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="Q21" s="8">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="8">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T21" s="2">
         <v>2</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -4302,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y21" s="2">
         <v>1</v>
@@ -4314,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:27">
+    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -4358,25 +3854,25 @@
         <v>6</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="Q22" s="8">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="8">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T22" s="2">
         <v>2</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -4385,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y22" s="2">
         <v>1</v>
@@ -4397,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:27">
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -4441,25 +3937,25 @@
         <v>6</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="Q23" s="8">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" s="8">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T23" s="2">
         <v>2</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -4468,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y23" s="2">
         <v>1</v>
@@ -4480,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:27">
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -4491,7 +3987,7 @@
         <v>1.6</v>
       </c>
       <c r="D24" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E24" s="8">
         <v>10</v>
@@ -4524,25 +4020,25 @@
         <v>6</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="Q24" s="8">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q24" s="8">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T24" s="2">
         <v>2</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -4551,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y24" s="2">
         <v>1</v>
@@ -4563,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:27">
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -4574,7 +4070,7 @@
         <v>1.6</v>
       </c>
       <c r="D25" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -4607,25 +4103,25 @@
         <v>6</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="Q25" s="8">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q25" s="8">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T25" s="2">
         <v>2</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -4634,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y25" s="2">
         <v>1</v>
@@ -4646,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:27">
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -4657,7 +4153,7 @@
         <v>1.6</v>
       </c>
       <c r="D26" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -4690,25 +4186,25 @@
         <v>6</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="Q26" s="8">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q26" s="8">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S26" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T26" s="2">
         <v>2</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
@@ -4717,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y26" s="2">
         <v>1</v>
@@ -4729,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:27">
+    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -4740,7 +4236,7 @@
         <v>1.6</v>
       </c>
       <c r="D27" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -4773,25 +4269,25 @@
         <v>6</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="Q27" s="8">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q27" s="8">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T27" s="2">
         <v>2</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V27" s="2">
         <v>0</v>
@@ -4800,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y27" s="2">
         <v>1</v>
@@ -4812,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:27">
+    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -4823,7 +4319,7 @@
         <v>1.6</v>
       </c>
       <c r="D28" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -4856,25 +4352,25 @@
         <v>6</v>
       </c>
       <c r="O28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="Q28" s="8">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="8">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T28" s="2">
         <v>2</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -4883,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y28" s="2">
         <v>1</v>
@@ -4895,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:27">
+    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -4906,7 +4402,7 @@
         <v>1.6</v>
       </c>
       <c r="D29" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E29" s="8">
         <v>10</v>
@@ -4939,25 +4435,25 @@
         <v>6</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="Q29" s="8">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="8">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T29" s="2">
         <v>2</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -4966,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y29" s="2">
         <v>1</v>
@@ -4978,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:27">
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -5022,25 +4518,25 @@
         <v>6</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="Q30" s="8">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="8">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T30" s="2">
         <v>2</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -5049,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y30" s="2">
         <v>1</v>
@@ -5061,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:27">
+    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -5105,25 +4601,25 @@
         <v>6</v>
       </c>
       <c r="O31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="Q31" s="8">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="8">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T31" s="2">
         <v>2</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -5132,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y31" s="2">
         <v>1</v>
@@ -5144,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:27">
+    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -5188,25 +4684,25 @@
         <v>6</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="Q32" s="8">
+        <v>2</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="8">
-        <v>2</v>
-      </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S32" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T32" s="2">
         <v>2</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
@@ -5215,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="2">
         <v>1</v>
@@ -5227,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:27">
+    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -5271,25 +4767,25 @@
         <v>6</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="Q33" s="8">
+        <v>2</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q33" s="8">
-        <v>2</v>
-      </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T33" s="2">
         <v>2</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -5298,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y33" s="2">
         <v>1</v>
@@ -5310,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:27">
+    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -5342,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>62</v>
@@ -5354,25 +4850,25 @@
         <v>6</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="Q34" s="8">
+        <v>2</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q34" s="8">
-        <v>2</v>
-      </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T34" s="2">
         <v>2</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
@@ -5381,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y34" s="2">
         <v>1</v>
@@ -5393,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:27">
+    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -5437,25 +4933,25 @@
         <v>6</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="Q35" s="8">
+        <v>2</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="8">
-        <v>2</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="S35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S35" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T35" s="2">
         <v>2</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V35" s="2">
         <v>0</v>
@@ -5464,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y35" s="2">
         <v>1</v>
@@ -5476,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:27">
+    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -5520,25 +5016,25 @@
         <v>6</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="Q36" s="8">
+        <v>2</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q36" s="8">
-        <v>2</v>
-      </c>
-      <c r="R36" s="2" t="s">
+      <c r="S36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T36" s="2">
         <v>2</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -5547,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y36" s="2">
         <v>1</v>
@@ -5559,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:27">
+    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -5603,25 +5099,25 @@
         <v>6</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="Q37" s="8">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q37" s="8">
-        <v>2</v>
-      </c>
-      <c r="R37" s="2" t="s">
+      <c r="S37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T37" s="2">
         <v>2</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V37" s="2">
         <v>0</v>
@@ -5630,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y37" s="2">
         <v>1</v>
@@ -5642,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:27">
+    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -5686,25 +5182,25 @@
         <v>6</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="Q38" s="8">
+        <v>2</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q38" s="8">
-        <v>2</v>
-      </c>
-      <c r="R38" s="2" t="s">
+      <c r="S38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T38" s="2">
         <v>2</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
@@ -5713,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y38" s="2">
         <v>1</v>
@@ -5725,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:27">
+    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -5733,7 +5229,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D39" s="2">
         <v>1.2</v>
@@ -5769,25 +5265,25 @@
         <v>6</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+      <c r="R39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q39" s="8">
-        <v>2</v>
-      </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S39" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T39" s="2">
         <v>2</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
@@ -5796,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y39" s="2">
         <v>1</v>
@@ -5808,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:27">
+    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -5816,7 +5312,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D40" s="2">
         <v>1.2</v>
@@ -5852,25 +5348,25 @@
         <v>6</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="Q40" s="8">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="8">
-        <v>2</v>
-      </c>
-      <c r="R40" s="2" t="s">
+      <c r="S40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T40" s="2">
         <v>2</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -5879,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y40" s="2">
         <v>1</v>
@@ -5891,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:27">
+    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -5899,7 +5395,7 @@
         <v>130</v>
       </c>
       <c r="C41" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D41" s="2">
         <v>1.2</v>
@@ -5935,25 +5431,25 @@
         <v>6</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="Q41" s="8">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q41" s="8">
-        <v>2</v>
-      </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T41" s="2">
         <v>2</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V41" s="2">
         <v>0</v>
@@ -5962,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y41" s="2">
         <v>1</v>
@@ -5974,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:27">
+    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -5982,7 +5478,7 @@
         <v>180</v>
       </c>
       <c r="C42" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D42" s="2">
         <v>1.2</v>
@@ -6018,25 +5514,25 @@
         <v>6</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="Q42" s="8">
+        <v>2</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q42" s="8">
-        <v>2</v>
-      </c>
-      <c r="R42" s="2" t="s">
+      <c r="S42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S42" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T42" s="2">
         <v>2</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
@@ -6045,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y42" s="2">
         <v>1</v>
@@ -6057,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:27">
+    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>39</v>
       </c>
@@ -6065,7 +5561,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D43" s="2">
         <v>1.2</v>
@@ -6101,25 +5597,25 @@
         <v>6</v>
       </c>
       <c r="O43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="Q43" s="8">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q43" s="8">
-        <v>2</v>
-      </c>
-      <c r="R43" s="2" t="s">
+      <c r="S43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T43" s="2">
         <v>2</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V43" s="2">
         <v>0</v>
@@ -6128,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y43" s="2">
         <v>1</v>
@@ -6140,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:27">
+    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40</v>
       </c>
@@ -6184,25 +5680,25 @@
         <v>6</v>
       </c>
       <c r="O44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="Q44" s="8">
+        <v>2</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="8">
-        <v>2</v>
-      </c>
-      <c r="R44" s="2" t="s">
+      <c r="S44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T44" s="2">
         <v>2</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V44" s="2">
         <v>0</v>
@@ -6211,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y44" s="2">
         <v>1</v>
@@ -6223,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:27">
+    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
@@ -6267,25 +5763,25 @@
         <v>6</v>
       </c>
       <c r="O45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="Q45" s="8">
+        <v>2</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q45" s="8">
-        <v>2</v>
-      </c>
-      <c r="R45" s="2" t="s">
+      <c r="S45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T45" s="2">
         <v>2</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V45" s="2">
         <v>0</v>
@@ -6294,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y45" s="2">
         <v>1</v>
@@ -6306,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:27">
+    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -6350,25 +5846,25 @@
         <v>6</v>
       </c>
       <c r="O46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="Q46" s="8">
+        <v>2</v>
+      </c>
+      <c r="R46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q46" s="8">
-        <v>2</v>
-      </c>
-      <c r="R46" s="2" t="s">
+      <c r="S46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S46" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T46" s="2">
         <v>2</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V46" s="2">
         <v>0</v>
@@ -6377,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y46" s="2">
         <v>1</v>
@@ -6389,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:27">
+    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -6433,25 +5929,25 @@
         <v>6</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="Q47" s="8">
+        <v>2</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q47" s="8">
-        <v>2</v>
-      </c>
-      <c r="R47" s="2" t="s">
+      <c r="S47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S47" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T47" s="2">
         <v>2</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V47" s="2">
         <v>0</v>
@@ -6460,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y47" s="2">
         <v>1</v>
@@ -6472,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:27">
+    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -6516,25 +6012,25 @@
         <v>6</v>
       </c>
       <c r="O48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P48" s="8" t="s">
+      <c r="Q48" s="8">
+        <v>2</v>
+      </c>
+      <c r="R48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="8">
-        <v>2</v>
-      </c>
-      <c r="R48" s="2" t="s">
+      <c r="S48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S48" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T48" s="2">
         <v>2</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V48" s="2">
         <v>0</v>
@@ -6543,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y48" s="2">
         <v>1</v>
@@ -6555,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:27">
+    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -6599,25 +6095,25 @@
         <v>6</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P49" s="8" t="s">
+      <c r="Q49" s="8">
+        <v>2</v>
+      </c>
+      <c r="R49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q49" s="8">
-        <v>2</v>
-      </c>
-      <c r="R49" s="2" t="s">
+      <c r="S49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S49" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T49" s="2">
         <v>2</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
@@ -6626,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y49" s="2">
         <v>1</v>
@@ -6638,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:27">
+    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>46</v>
       </c>
@@ -6682,25 +6178,25 @@
         <v>6</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="Q50" s="8">
+        <v>2</v>
+      </c>
+      <c r="R50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q50" s="8">
-        <v>2</v>
-      </c>
-      <c r="R50" s="2" t="s">
+      <c r="S50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S50" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T50" s="2">
         <v>2</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V50" s="2">
         <v>0</v>
@@ -6709,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y50" s="2">
         <v>1</v>
@@ -6721,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:27">
+    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>47</v>
       </c>
@@ -6765,25 +6261,25 @@
         <v>6</v>
       </c>
       <c r="O51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="Q51" s="8">
+        <v>2</v>
+      </c>
+      <c r="R51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q51" s="8">
-        <v>2</v>
-      </c>
-      <c r="R51" s="2" t="s">
+      <c r="S51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S51" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T51" s="2">
         <v>2</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V51" s="2">
         <v>0</v>
@@ -6792,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y51" s="2">
         <v>1</v>
@@ -6804,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:27">
+    <row r="52" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>48</v>
       </c>
@@ -6848,25 +6344,25 @@
         <v>6</v>
       </c>
       <c r="O52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="Q52" s="8">
+        <v>2</v>
+      </c>
+      <c r="R52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q52" s="8">
-        <v>2</v>
-      </c>
-      <c r="R52" s="2" t="s">
+      <c r="S52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T52" s="2">
         <v>2</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V52" s="2">
         <v>0</v>
@@ -6875,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y52" s="2">
         <v>1</v>
@@ -6887,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:27">
+    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>49</v>
       </c>
@@ -6931,25 +6427,25 @@
         <v>6</v>
       </c>
       <c r="O53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="Q53" s="8">
+        <v>2</v>
+      </c>
+      <c r="R53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q53" s="8">
-        <v>2</v>
-      </c>
-      <c r="R53" s="2" t="s">
+      <c r="S53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S53" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T53" s="2">
         <v>2</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V53" s="2">
         <v>0</v>
@@ -6958,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y53" s="2">
         <v>1</v>
@@ -6970,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:27">
+    <row r="54" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>50</v>
       </c>
@@ -6981,7 +6477,7 @@
         <v>1.6</v>
       </c>
       <c r="D54" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E54" s="8">
         <v>10</v>
@@ -7014,25 +6510,25 @@
         <v>6</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="Q54" s="8">
+        <v>2</v>
+      </c>
+      <c r="R54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="8">
-        <v>2</v>
-      </c>
-      <c r="R54" s="2" t="s">
+      <c r="S54" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S54" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T54" s="2">
         <v>2</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
@@ -7041,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y54" s="2">
         <v>1</v>
@@ -7053,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:27">
+    <row r="55" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>51</v>
       </c>
@@ -7064,7 +6560,7 @@
         <v>1.6</v>
       </c>
       <c r="D55" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -7097,25 +6593,25 @@
         <v>6</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="Q55" s="8">
+        <v>2</v>
+      </c>
+      <c r="R55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q55" s="8">
-        <v>2</v>
-      </c>
-      <c r="R55" s="2" t="s">
+      <c r="S55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S55" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T55" s="2">
         <v>2</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -7124,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y55" s="2">
         <v>1</v>
@@ -7136,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:27">
+    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>52</v>
       </c>
@@ -7147,7 +6643,7 @@
         <v>1.6</v>
       </c>
       <c r="D56" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E56" s="8">
         <v>0</v>
@@ -7180,25 +6676,25 @@
         <v>6</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="Q56" s="8">
+        <v>2</v>
+      </c>
+      <c r="R56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="8">
-        <v>2</v>
-      </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S56" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T56" s="2">
         <v>2</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V56" s="2">
         <v>0</v>
@@ -7207,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y56" s="2">
         <v>1</v>
@@ -7219,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:27">
+    <row r="57" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>53</v>
       </c>
@@ -7230,7 +6726,7 @@
         <v>1.6</v>
       </c>
       <c r="D57" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E57" s="8">
         <v>0</v>
@@ -7263,25 +6759,25 @@
         <v>6</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="Q57" s="8">
+        <v>2</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q57" s="8">
-        <v>2</v>
-      </c>
-      <c r="R57" s="2" t="s">
+      <c r="S57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S57" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T57" s="2">
         <v>2</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V57" s="2">
         <v>0</v>
@@ -7290,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y57" s="2">
         <v>1</v>
@@ -7302,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:27">
+    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>54</v>
       </c>
@@ -7313,7 +6809,7 @@
         <v>1.6</v>
       </c>
       <c r="D58" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E58" s="8">
         <v>0</v>
@@ -7346,25 +6842,25 @@
         <v>6</v>
       </c>
       <c r="O58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="Q58" s="8">
+        <v>2</v>
+      </c>
+      <c r="R58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q58" s="8">
-        <v>2</v>
-      </c>
-      <c r="R58" s="2" t="s">
+      <c r="S58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S58" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T58" s="2">
         <v>2</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V58" s="2">
         <v>0</v>
@@ -7373,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y58" s="2">
         <v>1</v>
@@ -7385,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:27">
+    <row r="59" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>55</v>
       </c>
@@ -7396,7 +6892,7 @@
         <v>1.6</v>
       </c>
       <c r="D59" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E59" s="8">
         <v>10</v>
@@ -7429,25 +6925,25 @@
         <v>6</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="Q59" s="8">
+        <v>2</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q59" s="8">
-        <v>2</v>
-      </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S59" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T59" s="2">
         <v>2</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V59" s="2">
         <v>0</v>
@@ -7456,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y59" s="2">
         <v>1</v>
@@ -7468,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:27">
+    <row r="60" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>56</v>
       </c>
@@ -7512,25 +7008,25 @@
         <v>6</v>
       </c>
       <c r="O60" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="Q60" s="8">
+        <v>2</v>
+      </c>
+      <c r="R60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q60" s="8">
-        <v>2</v>
-      </c>
-      <c r="R60" s="2" t="s">
+      <c r="S60" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S60" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T60" s="2">
         <v>2</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V60" s="2">
         <v>0</v>
@@ -7539,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y60" s="2">
         <v>1</v>
@@ -7551,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:27">
+    <row r="61" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>57</v>
       </c>
@@ -7595,25 +7091,25 @@
         <v>6</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="Q61" s="8">
+        <v>2</v>
+      </c>
+      <c r="R61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q61" s="8">
-        <v>2</v>
-      </c>
-      <c r="R61" s="2" t="s">
+      <c r="S61" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T61" s="2">
         <v>2</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V61" s="2">
         <v>0</v>
@@ -7622,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y61" s="2">
         <v>1</v>
@@ -7634,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:27">
+    <row r="62" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>58</v>
       </c>
@@ -7678,25 +7174,25 @@
         <v>6</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="Q62" s="8">
+        <v>2</v>
+      </c>
+      <c r="R62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q62" s="8">
-        <v>2</v>
-      </c>
-      <c r="R62" s="2" t="s">
+      <c r="S62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S62" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T62" s="2">
         <v>2</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V62" s="2">
         <v>0</v>
@@ -7705,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y62" s="2">
         <v>1</v>
@@ -7717,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:27">
+    <row r="63" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>59</v>
       </c>
@@ -7761,25 +7257,25 @@
         <v>6</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="Q63" s="8">
+        <v>2</v>
+      </c>
+      <c r="R63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q63" s="8">
-        <v>2</v>
-      </c>
-      <c r="R63" s="2" t="s">
+      <c r="S63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S63" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T63" s="2">
         <v>2</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V63" s="2">
         <v>0</v>
@@ -7788,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y63" s="2">
         <v>1</v>
@@ -7800,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:27">
+    <row r="64" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>60</v>
       </c>
@@ -7832,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>62</v>
@@ -7844,25 +7340,25 @@
         <v>6</v>
       </c>
       <c r="O64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="Q64" s="8">
+        <v>2</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q64" s="8">
-        <v>2</v>
-      </c>
-      <c r="R64" s="2" t="s">
+      <c r="S64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T64" s="2">
         <v>2</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V64" s="2">
         <v>0</v>
@@ -7871,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y64" s="2">
         <v>1</v>
@@ -7883,620 +7379,621 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I$1:K$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:K1048576">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8505,25 +8002,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{572eb9ca-2770-457f-8000-662f7b0b56e6}</x14:id>
+          <x14:id>{572EB9CA-2770-457F-8000-662F7B0B56E6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A5:$XFD64">
+  <conditionalFormatting sqref="A5:XFD64">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD($A5,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{572eb9ca-2770-457f-8000-662f7b0b56e6}">
+          <x14:cfRule type="dataBar" id="{572EB9CA-2770-457F-8000-662F7B0B56E6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8531,7 +8027,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:K$1048576</xm:sqref>
+          <xm:sqref>I1:K1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8540,28 +8036,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="4:5">
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -1465,16 +1465,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>E000|E401|E402|E403|E404|E408</t>
+    <t>E000|E401|E402|E403|E404|E405</t>
   </si>
   <si>
-    <t>40|30|30|30|30|5</t>
+    <t>50|30|30|30|100|50</t>
   </si>
   <si>
     <t>E405|E407|E404|E406|E409</t>
   </si>
   <si>
-    <t>25|10|30|10|3|3</t>
+    <t>35|10|30|10|3|3</t>
   </si>
   <si>
     <t>E000|E200|E201</t>
@@ -1500,10 +1500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1544,6 +1544,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1558,47 +1586,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1612,53 +1625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,15 +1640,48 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,18 +1699,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1718,6 +1712,12 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1761,7 +1761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1773,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,19 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,13 +1827,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,67 +1869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,7 +1899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,7 +1911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,33 +1998,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2046,11 +2024,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,7 +2065,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2074,137 +2074,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2237,6 +2237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="27" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="37" applyBorder="1">
       <alignment vertical="center"/>
@@ -2574,8 +2577,8 @@
   <sheetPr/>
   <dimension ref="A1:AA268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
@@ -2655,34 +2658,34 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2738,34 +2741,34 @@
       <c r="Q2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2797,28 +2800,28 @@
         <v>33</v>
       </c>
       <c r="Q3" s="10"/>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="12" t="s">
+      <c r="W3" s="12"/>
+      <c r="X3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
     </row>
     <row r="4" ht="16.5" spans="1:27">
       <c r="A4" s="6" t="s">
@@ -2910,10 +2913,10 @@
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="8">
@@ -2940,7 +2943,7 @@
       <c r="L5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N5" s="8">
@@ -2949,7 +2952,7 @@
       <c r="O5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q5" s="8">
@@ -2993,10 +2996,10 @@
       <c r="B6" s="2">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="E6" s="8">
@@ -3023,7 +3026,7 @@
       <c r="L6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N6" s="8">
@@ -3032,7 +3035,7 @@
       <c r="O6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="8">
@@ -3076,10 +3079,10 @@
       <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="8">
@@ -3106,7 +3109,7 @@
       <c r="L7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N7" s="8">
@@ -3115,7 +3118,7 @@
       <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="8">
@@ -3159,10 +3162,10 @@
       <c r="B8" s="2">
         <v>45</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="8">
@@ -3189,7 +3192,7 @@
       <c r="L8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N8" s="8">
@@ -3198,7 +3201,7 @@
       <c r="O8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="8">
@@ -3243,10 +3246,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
@@ -3272,7 +3275,7 @@
       <c r="L9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N9" s="8">
@@ -3281,7 +3284,7 @@
       <c r="O9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="8">
@@ -3326,10 +3329,10 @@
         <v>90</v>
       </c>
       <c r="C10" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -3355,7 +3358,7 @@
       <c r="L10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N10" s="8">
@@ -3364,7 +3367,7 @@
       <c r="O10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="8">
@@ -3409,10 +3412,10 @@
         <v>130</v>
       </c>
       <c r="C11" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -3438,7 +3441,7 @@
       <c r="L11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N11" s="8">
@@ -3447,7 +3450,7 @@
       <c r="O11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="8">
@@ -3492,10 +3495,10 @@
         <v>180</v>
       </c>
       <c r="C12" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -3521,7 +3524,7 @@
       <c r="L12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="8">
@@ -3530,7 +3533,7 @@
       <c r="O12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q12" s="8">
@@ -3575,10 +3578,10 @@
         <v>220</v>
       </c>
       <c r="C13" s="8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -3604,7 +3607,7 @@
       <c r="L13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="8">
@@ -3613,7 +3616,7 @@
       <c r="O13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q13" s="8">
@@ -3658,10 +3661,10 @@
         <v>260</v>
       </c>
       <c r="C14" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D14" s="8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -3687,7 +3690,7 @@
       <c r="L14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N14" s="8">
@@ -3696,7 +3699,7 @@
       <c r="O14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="8">
@@ -3741,10 +3744,10 @@
         <v>280</v>
       </c>
       <c r="C15" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D15" s="8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -3770,7 +3773,7 @@
       <c r="L15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N15" s="8">
@@ -3779,7 +3782,7 @@
       <c r="O15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q15" s="8">
@@ -3824,10 +3827,10 @@
         <v>300</v>
       </c>
       <c r="C16" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D16" s="8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -3853,7 +3856,7 @@
       <c r="L16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N16" s="8">
@@ -3862,7 +3865,7 @@
       <c r="O16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q16" s="8">
@@ -3907,10 +3910,10 @@
         <v>320</v>
       </c>
       <c r="C17" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D17" s="8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -3936,7 +3939,7 @@
       <c r="L17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N17" s="8">
@@ -3945,7 +3948,7 @@
       <c r="O17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q17" s="8">
@@ -3990,10 +3993,10 @@
         <v>350</v>
       </c>
       <c r="C18" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="D18" s="8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -4019,7 +4022,7 @@
       <c r="L18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N18" s="8">
@@ -4028,7 +4031,7 @@
       <c r="O18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q18" s="8">
@@ -4073,10 +4076,10 @@
         <v>400</v>
       </c>
       <c r="C19" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D19" s="8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
@@ -4102,7 +4105,7 @@
       <c r="L19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="8">
@@ -4111,7 +4114,7 @@
       <c r="O19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q19" s="8">
@@ -4156,10 +4159,10 @@
         <v>500</v>
       </c>
       <c r="C20" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D20" s="8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -4185,7 +4188,7 @@
       <c r="L20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N20" s="8">
@@ -4194,7 +4197,7 @@
       <c r="O20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q20" s="8">
@@ -4239,10 +4242,10 @@
         <v>600</v>
       </c>
       <c r="C21" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D21" s="8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -4268,7 +4271,7 @@
       <c r="L21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N21" s="8">
@@ -4277,7 +4280,7 @@
       <c r="O21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q21" s="8">
@@ -4322,10 +4325,10 @@
         <v>700</v>
       </c>
       <c r="C22" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D22" s="8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -4351,7 +4354,7 @@
       <c r="L22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N22" s="8">
@@ -4360,7 +4363,7 @@
       <c r="O22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q22" s="8">
@@ -4405,10 +4408,10 @@
         <v>800</v>
       </c>
       <c r="C23" s="8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D23" s="8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -4434,7 +4437,7 @@
       <c r="L23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N23" s="8">
@@ -4443,7 +4446,7 @@
       <c r="O23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q23" s="8">
@@ -4488,10 +4491,10 @@
         <v>900</v>
       </c>
       <c r="C24" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D24" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E24" s="8">
         <v>10</v>
@@ -4517,7 +4520,7 @@
       <c r="L24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N24" s="8">
@@ -4526,7 +4529,7 @@
       <c r="O24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q24" s="8">
@@ -4571,10 +4574,10 @@
         <v>1000</v>
       </c>
       <c r="C25" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D25" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -4600,7 +4603,7 @@
       <c r="L25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N25" s="8">
@@ -4609,7 +4612,7 @@
       <c r="O25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q25" s="8">
@@ -4654,10 +4657,10 @@
         <v>1100</v>
       </c>
       <c r="C26" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D26" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E26" s="8">
         <v>0</v>
@@ -4683,7 +4686,7 @@
       <c r="L26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N26" s="8">
@@ -4692,7 +4695,7 @@
       <c r="O26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q26" s="8">
@@ -4737,10 +4740,10 @@
         <v>1200</v>
       </c>
       <c r="C27" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D27" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -4766,7 +4769,7 @@
       <c r="L27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N27" s="8">
@@ -4775,7 +4778,7 @@
       <c r="O27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q27" s="8">
@@ -4820,10 +4823,10 @@
         <v>1300</v>
       </c>
       <c r="C28" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D28" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
@@ -4849,7 +4852,7 @@
       <c r="L28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N28" s="8">
@@ -4858,7 +4861,7 @@
       <c r="O28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q28" s="8">
@@ -4903,10 +4906,10 @@
         <v>1400</v>
       </c>
       <c r="C29" s="8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D29" s="8">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="E29" s="8">
         <v>10</v>
@@ -4932,7 +4935,7 @@
       <c r="L29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N29" s="8">
@@ -4941,7 +4944,7 @@
       <c r="O29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q29" s="8">
@@ -4986,10 +4989,10 @@
         <v>1500</v>
       </c>
       <c r="C30" s="8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D30" s="8">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
@@ -5015,7 +5018,7 @@
       <c r="L30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N30" s="8">
@@ -5024,7 +5027,7 @@
       <c r="O30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q30" s="8">
@@ -5069,10 +5072,10 @@
         <v>1600</v>
       </c>
       <c r="C31" s="8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D31" s="8">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -5098,7 +5101,7 @@
       <c r="L31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N31" s="8">
@@ -5107,7 +5110,7 @@
       <c r="O31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q31" s="8">
@@ -5152,10 +5155,10 @@
         <v>1700</v>
       </c>
       <c r="C32" s="8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D32" s="8">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
@@ -5181,7 +5184,7 @@
       <c r="L32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N32" s="8">
@@ -5190,7 +5193,7 @@
       <c r="O32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q32" s="8">
@@ -5235,10 +5238,10 @@
         <v>1800</v>
       </c>
       <c r="C33" s="8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D33" s="8">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
@@ -5264,7 +5267,7 @@
       <c r="L33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N33" s="8">
@@ -5273,7 +5276,7 @@
       <c r="O33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q33" s="8">
@@ -5318,10 +5321,10 @@
         <v>1900</v>
       </c>
       <c r="C34" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D34" s="8">
-        <v>2.5</v>
+        <v>1.35</v>
       </c>
       <c r="E34" s="8">
         <v>10</v>
@@ -5347,7 +5350,7 @@
       <c r="L34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N34" s="8">
@@ -5356,7 +5359,7 @@
       <c r="O34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="8">
@@ -5400,10 +5403,10 @@
       <c r="B35" s="2">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
         <v>1</v>
       </c>
       <c r="E35" s="8">
@@ -5430,7 +5433,7 @@
       <c r="L35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N35" s="8">
@@ -5439,7 +5442,7 @@
       <c r="O35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q35" s="8">
@@ -5483,10 +5486,10 @@
       <c r="B36" s="2">
         <v>20</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
         <v>1</v>
       </c>
       <c r="E36" s="8">
@@ -5513,7 +5516,7 @@
       <c r="L36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N36" s="8">
@@ -5522,7 +5525,7 @@
       <c r="O36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q36" s="8">
@@ -5566,10 +5569,10 @@
       <c r="B37" s="2">
         <v>30</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="8">
@@ -5596,7 +5599,7 @@
       <c r="L37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N37" s="8">
@@ -5605,7 +5608,7 @@
       <c r="O37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q37" s="8">
@@ -5649,10 +5652,10 @@
       <c r="B38" s="2">
         <v>45</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
         <v>1</v>
       </c>
       <c r="E38" s="8">
@@ -5679,7 +5682,7 @@
       <c r="L38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N38" s="8">
@@ -5688,7 +5691,7 @@
       <c r="O38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q38" s="8">
@@ -5733,10 +5736,10 @@
         <v>60</v>
       </c>
       <c r="C39" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
       </c>
       <c r="E39" s="8">
         <v>0</v>
@@ -5762,7 +5765,7 @@
       <c r="L39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N39" s="8">
@@ -5771,7 +5774,7 @@
       <c r="O39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q39" s="8">
@@ -5816,10 +5819,10 @@
         <v>90</v>
       </c>
       <c r="C40" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -5845,7 +5848,7 @@
       <c r="L40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N40" s="8">
@@ -5854,7 +5857,7 @@
       <c r="O40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q40" s="8">
@@ -5899,10 +5902,10 @@
         <v>130</v>
       </c>
       <c r="C41" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
       </c>
       <c r="E41" s="8">
         <v>0</v>
@@ -5928,7 +5931,7 @@
       <c r="L41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N41" s="8">
@@ -5937,7 +5940,7 @@
       <c r="O41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q41" s="8">
@@ -5982,10 +5985,10 @@
         <v>180</v>
       </c>
       <c r="C42" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
       </c>
       <c r="E42" s="8">
         <v>0</v>
@@ -6011,7 +6014,7 @@
       <c r="L42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N42" s="8">
@@ -6020,7 +6023,7 @@
       <c r="O42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q42" s="8">
@@ -6065,10 +6068,10 @@
         <v>220</v>
       </c>
       <c r="C43" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
       </c>
       <c r="E43" s="8">
         <v>0</v>
@@ -6094,7 +6097,7 @@
       <c r="L43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N43" s="8">
@@ -6103,7 +6106,7 @@
       <c r="O43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q43" s="8">
@@ -6148,10 +6151,10 @@
         <v>260</v>
       </c>
       <c r="C44" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.1</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -6177,7 +6180,7 @@
       <c r="L44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N44" s="8">
@@ -6186,7 +6189,7 @@
       <c r="O44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P44" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q44" s="8">
@@ -6231,10 +6234,10 @@
         <v>280</v>
       </c>
       <c r="C45" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.1</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -6260,7 +6263,7 @@
       <c r="L45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N45" s="8">
@@ -6269,7 +6272,7 @@
       <c r="O45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="P45" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q45" s="8">
@@ -6314,10 +6317,10 @@
         <v>300</v>
       </c>
       <c r="C46" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.1</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
@@ -6343,7 +6346,7 @@
       <c r="L46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N46" s="8">
@@ -6352,7 +6355,7 @@
       <c r="O46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q46" s="8">
@@ -6397,10 +6400,10 @@
         <v>320</v>
       </c>
       <c r="C47" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.1</v>
       </c>
       <c r="E47" s="8">
         <v>0</v>
@@ -6426,7 +6429,7 @@
       <c r="L47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N47" s="8">
@@ -6435,7 +6438,7 @@
       <c r="O47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q47" s="8">
@@ -6480,10 +6483,10 @@
         <v>350</v>
       </c>
       <c r="C48" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1.1</v>
       </c>
       <c r="E48" s="8">
         <v>0</v>
@@ -6509,7 +6512,7 @@
       <c r="L48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N48" s="8">
@@ -6518,7 +6521,7 @@
       <c r="O48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P48" s="8" t="s">
+      <c r="P48" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q48" s="8">
@@ -6563,10 +6566,10 @@
         <v>400</v>
       </c>
       <c r="C49" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.1</v>
       </c>
       <c r="E49" s="8">
         <v>10</v>
@@ -6592,7 +6595,7 @@
       <c r="L49" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N49" s="8">
@@ -6601,7 +6604,7 @@
       <c r="O49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P49" s="8" t="s">
+      <c r="P49" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q49" s="8">
@@ -6646,10 +6649,10 @@
         <v>500</v>
       </c>
       <c r="C50" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.1</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -6675,7 +6678,7 @@
       <c r="L50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N50" s="8">
@@ -6684,7 +6687,7 @@
       <c r="O50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="P50" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q50" s="8">
@@ -6729,10 +6732,10 @@
         <v>600</v>
       </c>
       <c r="C51" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1.1</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -6758,7 +6761,7 @@
       <c r="L51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N51" s="8">
@@ -6767,7 +6770,7 @@
       <c r="O51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q51" s="8">
@@ -6812,10 +6815,10 @@
         <v>700</v>
       </c>
       <c r="C52" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.1</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -6841,7 +6844,7 @@
       <c r="L52" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N52" s="8">
@@ -6850,7 +6853,7 @@
       <c r="O52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q52" s="8">
@@ -6895,10 +6898,10 @@
         <v>800</v>
       </c>
       <c r="C53" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.1</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
@@ -6924,7 +6927,7 @@
       <c r="L53" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N53" s="8">
@@ -6933,7 +6936,7 @@
       <c r="O53" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="P53" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q53" s="8">
@@ -6978,10 +6981,10 @@
         <v>900</v>
       </c>
       <c r="C54" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1.25</v>
       </c>
       <c r="E54" s="8">
         <v>10</v>
@@ -7007,7 +7010,7 @@
       <c r="L54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N54" s="8">
@@ -7016,7 +7019,7 @@
       <c r="O54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="P54" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q54" s="8">
@@ -7061,10 +7064,10 @@
         <v>1000</v>
       </c>
       <c r="C55" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1.25</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -7090,7 +7093,7 @@
       <c r="L55" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N55" s="8">
@@ -7099,7 +7102,7 @@
       <c r="O55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="P55" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q55" s="8">
@@ -7144,10 +7147,10 @@
         <v>1100</v>
       </c>
       <c r="C56" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.25</v>
       </c>
       <c r="E56" s="8">
         <v>0</v>
@@ -7173,7 +7176,7 @@
       <c r="L56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N56" s="8">
@@ -7182,7 +7185,7 @@
       <c r="O56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="P56" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q56" s="8">
@@ -7227,10 +7230,10 @@
         <v>1200</v>
       </c>
       <c r="C57" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1.25</v>
       </c>
       <c r="E57" s="8">
         <v>0</v>
@@ -7256,7 +7259,7 @@
       <c r="L57" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="M57" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N57" s="8">
@@ -7265,7 +7268,7 @@
       <c r="O57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="P57" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q57" s="8">
@@ -7310,10 +7313,10 @@
         <v>1300</v>
       </c>
       <c r="C58" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.25</v>
       </c>
       <c r="E58" s="8">
         <v>0</v>
@@ -7339,7 +7342,7 @@
       <c r="L58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N58" s="8">
@@ -7348,7 +7351,7 @@
       <c r="O58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="P58" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q58" s="8">
@@ -7393,10 +7396,10 @@
         <v>1400</v>
       </c>
       <c r="C59" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.25</v>
       </c>
       <c r="E59" s="8">
         <v>10</v>
@@ -7422,7 +7425,7 @@
       <c r="L59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N59" s="8">
@@ -7431,7 +7434,7 @@
       <c r="O59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="P59" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q59" s="8">
@@ -7476,10 +7479,10 @@
         <v>1500</v>
       </c>
       <c r="C60" s="8">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1.25</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
@@ -7505,7 +7508,7 @@
       <c r="L60" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N60" s="8">
@@ -7514,7 +7517,7 @@
       <c r="O60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="P60" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q60" s="8">
@@ -7559,10 +7562,10 @@
         <v>1600</v>
       </c>
       <c r="C61" s="8">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.25</v>
       </c>
       <c r="E61" s="8">
         <v>0</v>
@@ -7588,7 +7591,7 @@
       <c r="L61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N61" s="8">
@@ -7597,7 +7600,7 @@
       <c r="O61" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="P61" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q61" s="8">
@@ -7642,10 +7645,10 @@
         <v>1700</v>
       </c>
       <c r="C62" s="8">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.25</v>
       </c>
       <c r="E62" s="8">
         <v>0</v>
@@ -7671,7 +7674,7 @@
       <c r="L62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N62" s="8">
@@ -7680,7 +7683,7 @@
       <c r="O62" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="P62" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q62" s="8">
@@ -7725,10 +7728,10 @@
         <v>1800</v>
       </c>
       <c r="C63" s="8">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.25</v>
       </c>
       <c r="E63" s="8">
         <v>0</v>
@@ -7754,7 +7757,7 @@
       <c r="L63" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N63" s="8">
@@ -7763,7 +7766,7 @@
       <c r="O63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="P63" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q63" s="8">
@@ -7808,10 +7811,10 @@
         <v>1900</v>
       </c>
       <c r="C64" s="8">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1.35</v>
       </c>
       <c r="E64" s="8">
         <v>10</v>
@@ -7837,7 +7840,7 @@
       <c r="L64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="11" t="s">
         <v>63</v>
       </c>
       <c r="N64" s="8">
@@ -7846,7 +7849,7 @@
       <c r="O64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="P64" s="11" t="s">
         <v>65</v>
       </c>
       <c r="Q64" s="8">
@@ -8505,7 +8508,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{572eb9ca-2770-457f-8000-662f7b0b56e6}</x14:id>
+          <x14:id>{0efad8aa-16d7-4e72-964b-999077019b4e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8523,7 +8526,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{572eb9ca-2770-457f-8000-662f7b0b56e6}">
+          <x14:cfRule type="dataBar" id="{0efad8aa-16d7-4e72-964b-999077019b4e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/程序用_正式版_对照版/Stage.xlsx
+++ b/程序用_正式版_对照版/Stage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24912"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD7569-B3AB-4A8F-8FF6-3E1DF1D9437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -15,19 +21,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>86176</author>
   </authors>
   <commentList>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -35,7 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E401  </t>
@@ -52,7 +58,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -68,7 +74,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -85,7 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E402  </t>
         </r>
@@ -101,7 +107,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -117,7 +123,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -134,7 +140,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E403  </t>
         </r>
@@ -150,7 +156,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -166,7 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -183,7 +189,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E404  </t>
         </r>
@@ -199,7 +205,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -216,7 +222,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E405  </t>
         </r>
@@ -232,7 +238,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -249,7 +255,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E406  </t>
         </r>
@@ -265,7 +271,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -282,7 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E407  </t>
         </r>
@@ -298,7 +304,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -315,7 +321,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E408  </t>
         </r>
@@ -331,7 +337,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">: </t>
         </r>
@@ -348,7 +354,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E409  </t>
         </r>
@@ -364,7 +370,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -379,14 +385,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -394,7 +400,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E401  </t>
@@ -411,7 +417,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -427,7 +433,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -444,7 +450,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E402  </t>
         </r>
@@ -460,7 +466,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -476,7 +482,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -493,7 +499,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E403  </t>
         </r>
@@ -509,7 +515,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -525,7 +531,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -542,7 +548,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E404  </t>
         </r>
@@ -558,7 +564,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -575,7 +581,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E405  </t>
         </r>
@@ -591,7 +597,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -608,7 +614,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E406  </t>
         </r>
@@ -624,7 +630,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -641,7 +647,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E407  </t>
         </r>
@@ -657,7 +663,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -674,7 +680,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E408  </t>
         </r>
@@ -690,7 +696,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">: </t>
         </r>
@@ -707,7 +713,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E409  </t>
         </r>
@@ -723,7 +729,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -740,21 +746,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -762,7 +768,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E200  </t>
@@ -779,7 +785,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 E201  </t>
@@ -796,21 +802,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0">
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -818,7 +824,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E200  </t>
@@ -835,7 +841,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 E201  </t>
@@ -852,21 +858,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0">
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>86176:</t>
         </r>
@@ -874,7 +880,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 E301  </t>
@@ -891,7 +897,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -907,7 +913,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -924,7 +930,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E302  </t>
         </r>
@@ -940,7 +946,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -956,7 +962,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -973,7 +979,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E303  </t>
         </r>
@@ -989,7 +995,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1 </t>
         </r>
@@ -1006,7 +1012,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E304  </t>
         </r>
@@ -1022,7 +1028,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">2 </t>
         </r>
@@ -1039,7 +1045,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E305  </t>
         </r>
@@ -1055,7 +1061,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1071,7 +1077,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1088,7 +1094,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E306  </t>
         </r>
@@ -1104,7 +1110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1120,7 +1126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1137,7 +1143,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">E307  </t>
         </r>
@@ -1153,7 +1159,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -1169,7 +1175,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">) </t>
         </r>
@@ -1186,7 +1192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1198,13 +1204,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1277,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="73">
   <si>
     <t>RoomID</t>
   </si>
@@ -1471,9 +1477,6 @@
     <t>50|30|30|30|100|50</t>
   </si>
   <si>
-    <t>E405|E407|E404|E406|E409</t>
-  </si>
-  <si>
     <t>35|10|30|10|3|3</t>
   </si>
   <si>
@@ -1494,18 +1497,19 @@
   <si>
     <t>TableName: "Stage" Package: "neogame"</t>
   </si>
+  <si>
+    <t xml:space="preserve"> E000|E405|E407|E404|E406|E409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E000|E405|E407|E404|E406|E409</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1543,159 +1547,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1721,8 +1581,28 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,186 +1623,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1971,236 +1689,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2214,96 +1717,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="27" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="37" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
+    <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="2" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.799981688894314"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2312,6 +1771,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2569,19 +2031,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P64"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -2606,7 +2068,7 @@
     <col min="25" max="25" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2285,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" ht="16.5" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:27">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -2950,25 +2412,25 @@
         <v>6</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="8">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="8">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T5" s="2">
         <v>2</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
@@ -2977,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
@@ -2989,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:27">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3033,25 +2495,25 @@
         <v>6</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="8">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="8">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T6" s="2">
         <v>2</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -3060,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y6" s="2">
         <v>1</v>
@@ -3072,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:27">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3116,25 +2578,25 @@
         <v>6</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="8">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T7" s="2">
         <v>2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -3143,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
@@ -3155,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:27">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3199,25 +2661,25 @@
         <v>6</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="8">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T8" s="2">
         <v>2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -3226,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
@@ -3238,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:27">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -3282,25 +2744,25 @@
         <v>6</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="8">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T9" s="2">
         <v>2</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -3309,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y9" s="2">
         <v>1</v>
@@ -3321,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:27">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -3365,25 +2827,25 @@
         <v>6</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="8">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="8">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T10" s="2">
         <v>2</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -3392,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y10" s="2">
         <v>1</v>
@@ -3404,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:27">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -3448,25 +2910,25 @@
         <v>6</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="8">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="8">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T11" s="2">
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -3475,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y11" s="2">
         <v>1</v>
@@ -3487,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:27">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -3531,25 +2993,25 @@
         <v>6</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="Q12" s="8">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="8">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T12" s="2">
         <v>2</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
@@ -3558,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="2">
         <v>1</v>
@@ -3570,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -3614,25 +3076,25 @@
         <v>6</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="Q13" s="8">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="8">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T13" s="2">
         <v>2</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -3641,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y13" s="2">
         <v>1</v>
@@ -3653,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:27">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -3664,7 +3126,7 @@
         <v>1.2</v>
       </c>
       <c r="D14" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -3697,25 +3159,25 @@
         <v>6</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="8">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T14" s="2">
         <v>2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
@@ -3724,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y14" s="2">
         <v>1</v>
@@ -3736,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:27">
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -3747,7 +3209,7 @@
         <v>1.2</v>
       </c>
       <c r="D15" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -3780,25 +3242,25 @@
         <v>6</v>
       </c>
       <c r="O15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="8">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="8">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T15" s="2">
         <v>2</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
@@ -3807,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y15" s="2">
         <v>1</v>
@@ -3819,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:27">
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -3830,7 +3292,7 @@
         <v>1.2</v>
       </c>
       <c r="D16" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -3863,25 +3325,25 @@
         <v>6</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="8">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="8">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T16" s="2">
         <v>2</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V16" s="2">
         <v>0</v>
@@ -3890,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y16" s="2">
         <v>1</v>
@@ -3902,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:27">
+    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -3913,7 +3375,7 @@
         <v>1.2</v>
       </c>
       <c r="D17" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -3946,25 +3408,25 @@
         <v>6</v>
       </c>
       <c r="O17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="Q17" s="8">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="8">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T17" s="2">
         <v>2</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V17" s="2">
         <v>0</v>
@@ -3973,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y17" s="2">
         <v>1</v>
@@ -3985,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:27">
+    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -3996,7 +3458,7 @@
         <v>1.2</v>
       </c>
       <c r="D18" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -4029,25 +3491,25 @@
         <v>6</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="Q18" s="8">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="8">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T18" s="2">
         <v>2</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V18" s="2">
         <v>0</v>
@@ -4056,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="2">
         <v>1</v>
@@ -4068,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:27">
+    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -4079,7 +3541,7 @@
         <v>1.2</v>
       </c>
       <c r="D19" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
@@ -4112,25 +3574,25 @@
         <v>6</v>
       </c>
       <c r="O19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="Q19" s="8">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="8">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S19" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T19" s="2">
         <v>2</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -4139,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y19" s="2">
         <v>1</v>
@@ -4151,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:27">
+    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -4162,7 +3624,7 @@
         <v>1.2</v>
       </c>
       <c r="D20" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -4195,25 +3657,25 @@
         <v>6</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="Q20" s="8">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="8">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="S20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T20" s="2">
         <v>2</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -4222,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y20" s="2">
         <v>1</v>
@@ -4234,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:27">
+    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -4245,7 +3707,7 @@
         <v>1.2</v>
       </c>
       <c r="D21" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="8">
         <v>0</v>
@@ -4278,25 +3740,25 @@
         <v>6</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="Q21" s="8">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="8">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T21" s="2">
         <v>2</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -4305,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y21" s="2">
         <v>1</v>
@@ -4317,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:27">
+    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -4328,7 +3790,7 @@
         <v>1.2</v>
       </c>
       <c r="D22" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="8">
         <v>0</v>
@@ -4361,25 +3823,25 @@
         <v>6</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="Q22" s="8">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="8">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T22" s="2">
         <v>2</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -4388,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y22" s="2">
         <v>1</v>
@@ -4400,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:27">
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -4411,7 +3873,7 @@
         <v>1.2</v>
       </c>
       <c r="D23" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -4444,25 +3906,25 @@
         <v>6</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="Q23" s="8">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" s="8">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T23" s="2">
         <v>2</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -4471,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y23" s="2">
         <v>1</v>
@@ -4483,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:27">
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -4527,25 +3989,25 @@
         <v>6</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="8">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q24" s="8">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S24" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T24" s="2">
         <v>2</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -4554,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y24" s="2">
         <v>1</v>
@@ -4566,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:27">
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -4610,25 +4072,25 @@
         <v>6</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="Q25" s="8">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q25" s="8">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T25" s="2">
         <v>2</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -4637,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y25" s="2">
         <v>1</v>
@@ -4649,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:27">
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -4693,25 +4155,25 @@
         <v>6</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q26" s="8">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q26" s="8">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S26" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T26" s="2">
         <v>2</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
@@ -4720,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y26" s="2">
         <v>1</v>
@@ -4732,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:27">
+    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -4776,25 +4238,25 @@
         <v>6</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="Q27" s="8">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q27" s="8">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T27" s="2">
         <v>2</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V27" s="2">
         <v>0</v>
@@ -4803,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y27" s="2">
         <v>1</v>
@@ -4815,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:27">
+    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -4859,25 +4321,25 @@
         <v>6</v>
       </c>
       <c r="O28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="Q28" s="8">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="8">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T28" s="2">
         <v>2</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -4886,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y28" s="2">
         <v>1</v>
@@ -4898,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:27">
+    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -4942,25 +4404,25 @@
         <v>6</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="Q29" s="8">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q29" s="8">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T29" s="2">
         <v>2</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -4969,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y29" s="2">
         <v>1</v>
@@ -4981,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:27">
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -5025,25 +4487,25 @@
         <v>6</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="Q30" s="8">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="8">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T30" s="2">
         <v>2</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -5052,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y30" s="2">
         <v>1</v>
@@ -5064,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:27">
+    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -5108,25 +4570,25 @@
         <v>6</v>
       </c>
       <c r="O31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="Q31" s="8">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="8">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T31" s="2">
         <v>2</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -5135,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y31" s="2">
         <v>1</v>
@@ -5147,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:27">
+    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -5191,25 +4653,25 @@
         <v>6</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="Q32" s="8">
+        <v>2</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="8">
-        <v>2</v>
-      </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S32" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T32" s="2">
         <v>2</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
@@ -5218,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="2">
         <v>1</v>
@@ -5230,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:27">
+    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -5274,25 +4736,25 @@
         <v>6</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="Q33" s="8">
+        <v>2</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q33" s="8">
-        <v>2</v>
-      </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S33" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T33" s="2">
         <v>2</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -5301,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y33" s="2">
         <v>1</v>
@@ -5313,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:27">
+    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -5345,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>62</v>
@@ -5357,25 +4819,25 @@
         <v>6</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="Q34" s="8">
+        <v>2</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q34" s="8">
-        <v>2</v>
-      </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T34" s="2">
         <v>2</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
@@ -5384,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y34" s="2">
         <v>1</v>
@@ -5396,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:27">
+    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -5440,25 +4902,25 @@
         <v>6</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="Q35" s="8">
+        <v>2</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="8">
-        <v>2</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="S35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S35" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T35" s="2">
         <v>2</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V35" s="2">
         <v>0</v>
@@ -5467,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y35" s="2">
         <v>1</v>
@@ -5479,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:27">
+    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -5523,25 +4985,25 @@
         <v>6</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="Q36" s="8">
+        <v>2</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q36" s="8">
-        <v>2</v>
-      </c>
-      <c r="R36" s="2" t="s">
+      <c r="S36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T36" s="2">
         <v>2</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -5550,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y36" s="2">
         <v>1</v>
@@ -5562,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:27">
+    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -5606,25 +5068,25 @@
         <v>6</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="Q37" s="8">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q37" s="8">
-        <v>2</v>
-      </c>
-      <c r="R37" s="2" t="s">
+      <c r="S37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T37" s="2">
         <v>2</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V37" s="2">
         <v>0</v>
@@ -5633,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y37" s="2">
         <v>1</v>
@@ -5645,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:27">
+    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -5689,25 +5151,25 @@
         <v>6</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="Q38" s="8">
+        <v>2</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q38" s="8">
-        <v>2</v>
-      </c>
-      <c r="R38" s="2" t="s">
+      <c r="S38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T38" s="2">
         <v>2</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
@@ -5716,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y38" s="2">
         <v>1</v>
@@ -5728,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:27">
+    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -5772,25 +5234,25 @@
         <v>6</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+      <c r="R39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q39" s="8">
-        <v>2</v>
-      </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S39" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T39" s="2">
         <v>2</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
@@ -5799,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y39" s="2">
         <v>1</v>
@@ -5811,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:27">
+    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -5855,25 +5317,25 @@
         <v>6</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="Q40" s="8">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="8">
-        <v>2</v>
-      </c>
-      <c r="R40" s="2" t="s">
+      <c r="S40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T40" s="2">
         <v>2</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -5882,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y40" s="2">
         <v>1</v>
@@ -5894,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:27">
+    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -5938,25 +5400,25 @@
         <v>6</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="Q41" s="8">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q41" s="8">
-        <v>2</v>
-      </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T41" s="2">
         <v>2</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V41" s="2">
         <v>0</v>
@@ -5965,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y41" s="2">
         <v>1</v>
@@ -5977,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:27">
+    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -6021,25 +5483,25 @@
         <v>6</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="Q42" s="8">
+        <v>2</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q42" s="8">
-        <v>2</v>
-      </c>
-      <c r="R42" s="2" t="s">
+      <c r="S42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S42" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T42" s="2">
         <v>2</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
@@ -6048,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y42" s="2">
         <v>1</v>
@@ -6060,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:27">
+    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>39</v>
       </c>
@@ -6104,25 +5566,25 @@
         <v>6</v>
       </c>
       <c r="O43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="Q43" s="8">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q43" s="8">
-        <v>2</v>
-      </c>
-      <c r="R43" s="2" t="s">
+      <c r="S43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T43" s="2">
         <v>2</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V43" s="2">
         <v>0</v>
@@ -6131,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y43" s="2">
         <v>1</v>
@@ -6143,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:27">
+    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40</v>
       </c>
@@ -6154,7 +5616,7 @@
         <v>1.2</v>
       </c>
       <c r="D44" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -6187,25 +5649,25 @@
         <v>6</v>
       </c>
       <c r="O44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="Q44" s="8">
+        <v>2</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" s="8">
-        <v>2</v>
-      </c>
-      <c r="R44" s="2" t="s">
+      <c r="S44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T44" s="2">
         <v>2</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V44" s="2">
         <v>0</v>
@@ -6214,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y44" s="2">
         <v>1</v>
@@ -6226,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:27">
+    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
@@ -6237,7 +5699,7 @@
         <v>1.2</v>
       </c>
       <c r="D45" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E45" s="8">
         <v>0</v>
@@ -6270,25 +5732,25 @@
         <v>6</v>
       </c>
       <c r="O45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="Q45" s="8">
+        <v>2</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q45" s="8">
-        <v>2</v>
-      </c>
-      <c r="R45" s="2" t="s">
+      <c r="S45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T45" s="2">
         <v>2</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V45" s="2">
         <v>0</v>
@@ -6297,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y45" s="2">
         <v>1</v>
@@ -6309,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:27">
+    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -6320,7 +5782,7 @@
         <v>1.2</v>
       </c>
       <c r="D46" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
@@ -6353,25 +5815,25 @@
         <v>6</v>
       </c>
       <c r="O46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="Q46" s="8">
+        <v>2</v>
+      </c>
+      <c r="R46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q46" s="8">
-        <v>2</v>
-      </c>
-      <c r="R46" s="2" t="s">
+      <c r="S46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S46" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T46" s="2">
         <v>2</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V46" s="2">
         <v>0</v>
@@ -6380,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y46" s="2">
         <v>1</v>
@@ -6392,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:27">
+    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -6403,7 +5865,7 @@
         <v>1.2</v>
       </c>
       <c r="D47" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E47" s="8">
         <v>0</v>
@@ -6436,25 +5898,25 @@
         <v>6</v>
       </c>
       <c r="O47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="Q47" s="8">
+        <v>2</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q47" s="8">
-        <v>2</v>
-      </c>
-      <c r="R47" s="2" t="s">
+      <c r="S47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S47" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T47" s="2">
         <v>2</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V47" s="2">
         <v>0</v>
@@ -6463,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y47" s="2">
         <v>1</v>
@@ -6475,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:27">
+    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -6486,7 +5948,7 @@
         <v>1.2</v>
       </c>
       <c r="D48" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E48" s="8">
         <v>0</v>
@@ -6519,25 +5981,25 @@
         <v>6</v>
       </c>
       <c r="O48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="Q48" s="8">
+        <v>2</v>
+      </c>
+      <c r="R48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="8">
-        <v>2</v>
-      </c>
-      <c r="R48" s="2" t="s">
+      <c r="S48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S48" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T48" s="2">
         <v>2</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V48" s="2">
         <v>0</v>
@@ -6546,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y48" s="2">
         <v>1</v>
@@ -6558,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:27">
+    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -6569,7 +6031,7 @@
         <v>1.2</v>
       </c>
       <c r="D49" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E49" s="8">
         <v>10</v>
@@ -6602,25 +6064,25 @@
         <v>6</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="Q49" s="8">
+        <v>2</v>
+      </c>
+      <c r="R49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q49" s="8">
-        <v>2</v>
-      </c>
-      <c r="R49" s="2" t="s">
+      <c r="S49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S49" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T49" s="2">
         <v>2</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
@@ -6629,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y49" s="2">
         <v>1</v>
@@ -6641,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:27">
+    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>46</v>
       </c>
@@ -6652,7 +6114,7 @@
         <v>1.2</v>
       </c>
       <c r="D50" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -6685,25 +6147,25 @@
         <v>6</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="Q50" s="8">
+        <v>2</v>
+      </c>
+      <c r="R50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q50" s="8">
-        <v>2</v>
-      </c>
-      <c r="R50" s="2" t="s">
+      <c r="S50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S50" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T50" s="2">
         <v>2</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V50" s="2">
         <v>0</v>
@@ -6712,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y50" s="2">
         <v>1</v>
@@ -6724,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:27">
+    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>47</v>
       </c>
@@ -6735,7 +6197,7 @@
         <v>1.2</v>
       </c>
       <c r="D51" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
@@ -6768,25 +6230,25 @@
         <v>6</v>
       </c>
       <c r="O51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="Q51" s="8">
+        <v>2</v>
+      </c>
+      <c r="R51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q51" s="8">
-        <v>2</v>
-      </c>
-      <c r="R51" s="2" t="s">
+      <c r="S51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S51" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T51" s="2">
         <v>2</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V51" s="2">
         <v>0</v>
@@ -6795,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y51" s="2">
         <v>1</v>
@@ -6807,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:27">
+    <row r="52" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>48</v>
       </c>
@@ -6818,7 +6280,7 @@
         <v>1.2</v>
       </c>
       <c r="D52" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E52" s="8">
         <v>0</v>
@@ -6851,25 +6313,25 @@
         <v>6</v>
       </c>
       <c r="O52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="Q52" s="8">
+        <v>2</v>
+      </c>
+      <c r="R52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q52" s="8">
-        <v>2</v>
-      </c>
-      <c r="R52" s="2" t="s">
+      <c r="S52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S52" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T52" s="2">
         <v>2</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V52" s="2">
         <v>0</v>
@@ -6878,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y52" s="2">
         <v>1</v>
@@ -6890,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:27">
+    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>49</v>
       </c>
@@ -6901,7 +6363,7 @@
         <v>1.2</v>
       </c>
       <c r="D53" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E53" s="8">
         <v>0</v>
@@ -6934,25 +6396,25 @@
         <v>6</v>
       </c>
       <c r="O53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="Q53" s="8">
+        <v>2</v>
+      </c>
+      <c r="R53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q53" s="8">
-        <v>2</v>
-      </c>
-      <c r="R53" s="2" t="s">
+      <c r="S53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S53" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T53" s="2">
         <v>2</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V53" s="2">
         <v>0</v>
@@ -6961,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y53" s="2">
         <v>1</v>
@@ -6973,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:27">
+    <row r="54" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>50</v>
       </c>
@@ -7017,25 +6479,25 @@
         <v>6</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="Q54" s="8">
+        <v>2</v>
+      </c>
+      <c r="R54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="8">
-        <v>2</v>
-      </c>
-      <c r="R54" s="2" t="s">
+      <c r="S54" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S54" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T54" s="2">
         <v>2</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
@@ -7044,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y54" s="2">
         <v>1</v>
@@ -7056,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:27">
+    <row r="55" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>51</v>
       </c>
@@ -7100,25 +6562,25 @@
         <v>6</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="Q55" s="8">
+        <v>2</v>
+      </c>
+      <c r="R55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q55" s="8">
-        <v>2</v>
-      </c>
-      <c r="R55" s="2" t="s">
+      <c r="S55" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S55" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T55" s="2">
         <v>2</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -7127,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y55" s="2">
         <v>1</v>
@@ -7139,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:27">
+    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>52</v>
       </c>
@@ -7183,25 +6645,25 @@
         <v>6</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="Q56" s="8">
+        <v>2</v>
+      </c>
+      <c r="R56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="8">
-        <v>2</v>
-      </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S56" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T56" s="2">
         <v>2</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V56" s="2">
         <v>0</v>
@@ -7210,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y56" s="2">
         <v>1</v>
@@ -7222,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:27">
+    <row r="57" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>53</v>
       </c>
@@ -7266,25 +6728,25 @@
         <v>6</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="Q57" s="8">
+        <v>2</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q57" s="8">
-        <v>2</v>
-      </c>
-      <c r="R57" s="2" t="s">
+      <c r="S57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S57" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T57" s="2">
         <v>2</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V57" s="2">
         <v>0</v>
@@ -7293,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y57" s="2">
         <v>1</v>
@@ -7305,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:27">
+    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>54</v>
       </c>
@@ -7349,25 +6811,25 @@
         <v>6</v>
       </c>
       <c r="O58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="Q58" s="8">
+        <v>2</v>
+      </c>
+      <c r="R58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q58" s="8">
-        <v>2</v>
-      </c>
-      <c r="R58" s="2" t="s">
+      <c r="S58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S58" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T58" s="2">
         <v>2</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V58" s="2">
         <v>0</v>
@@ -7376,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y58" s="2">
         <v>1</v>
@@ -7388,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:27">
+    <row r="59" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>55</v>
       </c>
@@ -7432,25 +6894,25 @@
         <v>6</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="Q59" s="8">
+        <v>2</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q59" s="8">
-        <v>2</v>
-      </c>
-      <c r="R59" s="2" t="s">
+      <c r="S59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S59" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T59" s="2">
         <v>2</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V59" s="2">
         <v>0</v>
@@ -7459,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y59" s="2">
         <v>1</v>
@@ -7471,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:27">
+    <row r="60" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>56</v>
       </c>
@@ -7515,25 +6977,25 @@
         <v>6</v>
       </c>
       <c r="O60" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="Q60" s="8">
+        <v>2</v>
+      </c>
+      <c r="R60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q60" s="8">
-        <v>2</v>
-      </c>
-      <c r="R60" s="2" t="s">
+      <c r="S60" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S60" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T60" s="2">
         <v>2</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V60" s="2">
         <v>0</v>
@@ -7542,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y60" s="2">
         <v>1</v>
@@ -7554,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:27">
+    <row r="61" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>57</v>
       </c>
@@ -7598,25 +7060,25 @@
         <v>6</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="Q61" s="8">
+        <v>2</v>
+      </c>
+      <c r="R61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q61" s="8">
-        <v>2</v>
-      </c>
-      <c r="R61" s="2" t="s">
+      <c r="S61" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T61" s="2">
         <v>2</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V61" s="2">
         <v>0</v>
@@ -7625,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y61" s="2">
         <v>1</v>
@@ -7637,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:27">
+    <row r="62" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>58</v>
       </c>
@@ -7681,25 +7143,25 @@
         <v>6</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="Q62" s="8">
+        <v>2</v>
+      </c>
+      <c r="R62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q62" s="8">
-        <v>2</v>
-      </c>
-      <c r="R62" s="2" t="s">
+      <c r="S62" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S62" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T62" s="2">
         <v>2</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V62" s="2">
         <v>0</v>
@@ -7708,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y62" s="2">
         <v>1</v>
@@ -7720,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:27">
+    <row r="63" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>59</v>
       </c>
@@ -7764,25 +7226,25 @@
         <v>6</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="Q63" s="8">
+        <v>2</v>
+      </c>
+      <c r="R63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q63" s="8">
-        <v>2</v>
-      </c>
-      <c r="R63" s="2" t="s">
+      <c r="S63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S63" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T63" s="2">
         <v>2</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V63" s="2">
         <v>0</v>
@@ -7791,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y63" s="2">
         <v>1</v>
@@ -7803,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:27">
+    <row r="64" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>60</v>
       </c>
@@ -7835,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>62</v>
@@ -7847,25 +7309,25 @@
         <v>6</v>
       </c>
       <c r="O64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="Q64" s="8">
+        <v>2</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q64" s="8">
-        <v>2</v>
-      </c>
-      <c r="R64" s="2" t="s">
+      <c r="S64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="T64" s="2">
         <v>2</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V64" s="2">
         <v>0</v>
@@ -7874,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y64" s="2">
         <v>1</v>
@@ -7886,620 +7348,621 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I$1:K$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:K1048576">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8508,25 +7971,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0efad8aa-16d7-4e72-964b-999077019b4e}</x14:id>
+          <x14:id>{0EFAD8AA-16D7-4E72-964B-999077019B4E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A5:$XFD64">
+  <conditionalFormatting sqref="A5:XFD64">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD($A5,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0efad8aa-16d7-4e72-964b-999077019b4e}">
+          <x14:cfRule type="dataBar" id="{0EFAD8AA-16D7-4E72-964B-999077019B4E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8534,7 +7996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:K$1048576</xm:sqref>
+          <xm:sqref>I1:K1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8543,28 +8005,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="4:5">
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>